--- a/excel/2016.xlsx
+++ b/excel/2016.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>28 עמודים, 4 עמודים לא ממוספרים : איורים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>1 מקור מקוון.,28 עמודים, 4 עמודים לא ממוספרים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>997012735473505171,990039034560205171</t>
+          <t>990039034560205171,997012735473505171</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -694,22 +694,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>הראל, תמי  $$Qהראל, תמי,בן יוסף, שרית  $$Qבן יוסף, שרית</t>
+          <t>בן יוסף, שרית  $$Qבן יוסף, שרית,הראל, תמי  $$Qהראל, תמי</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21255382570005171,NNL_ALEPH21246407000005171</t>
+          <t>NNL_ALEPH21246407000005171,NNL_ALEPH21255382570005171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21246407000005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21255382570005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21255382570005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21246407000005171</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>גרבט, אמילי$$Qגרבט, אמילי,אבס, שלמה, 1948-$$Qאבס, שלמה, 1948-</t>
+          <t>אבס, שלמה, 1948-$$Qאבס, שלמה, 1948-,גרבט, אמילי$$Qגרבט, אמילי</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[14] עמודים : איורים צבעוניים ; 30X22 ס"מ.,[42] עמודים : איורים צבעוניים ; 17 X 25 ס"מ.</t>
+          <t>[42] עמודים : איורים צבעוניים ; 17 X 25 ס"מ.,[14] עמודים : איורים צבעוניים ; 30X22 ס"מ.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>הוד השרון : עגור,אור-יהודה : כנרת</t>
+          <t>אור-יהודה : כנרת,הוד השרון : עגור</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12497019830005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE190496460</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE190496460,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12497019830005171</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1142,17 +1142,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>מעשה באביגיל שאבדה לה שנת הליל / רות אורן ; איורים: כנרת גילדר ; עריכה: יונה טפר.,מעשה באביגיל שאבדה לה שנת הליל / רות אורן ; מספר שושיק שני.</t>
+          <t>מעשה באביגיל שאבדה לה שנת הליל / רות אורן ; מספר שושיק שני.,מעשה באביגיל שאבדה לה שנת הליל / רות אורן ; איורים: כנרת גילדר ; עריכה: יונה טפר.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>שני, שושיק, 1935-  (דובר)  $$Qשני, שושיק, 1935-,גילדר, כנרת  (מאייר)  $$Qגילדר, כנרת</t>
+          <t>גילדר, כנרת  (מאייר)  $$Qגילדר, כנרת,שני, שושיק, 1935-  (דובר)  $$Qשני, שושיק, 1935-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21171926450005171,NNL_ALEPH11361314110005171</t>
+          <t>NNL_ALEPH11361314110005171,NNL_ALEPH21171926450005171</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>28 עמודים לא ממוספרים : איורים צבעוניים ; 23 ס"מ.,1 מקור מקוון.</t>
+          <t>1 מקור מקוון.,28 עמודים לא ממוספרים : איורים צבעוניים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -1214,7 +1214,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>כשאהיה ראש ממשלה / נרי אלומה ; מספר נרי אלומה.,כשאהיה ראש ממשלה / נרי אלומה ; איורים: נעם נדב ; עריכה: יונה טפר.</t>
+          <t>כשאהיה ראש ממשלה / נרי אלומה ; איורים: נעם נדב ; עריכה: יונה טפר.,כשאהיה ראש ממשלה / נרי אלומה ; מספר נרי אלומה.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305055190005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243362</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243362,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305055190005171</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>24 עמודים לא ממוספרים : איורים צבעוניים ; 25 ס"מ.,1 מקור מקוון.</t>
+          <t>1 מקור מקוון.,24 עמודים לא ממוספרים : איורים צבעוניים ; 25 ס"מ.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[בני ברק] : הוצאת הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,[בני ברק] : הוצאת הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1269,12 +1269,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>990038287320205171,990039034950205171</t>
+          <t>990039034950205171,990038287320205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>אבן שושן, שלמה, 1910-2004  (מחבר תוכן טקסטואלי נוסף)  $$Qאבן שושן, שלמה, 1910-2004,מינצי, ולי  (מאייר)  $$Qמינצי, ולי</t>
+          <t>מינצי, ולי  (מאייר)  $$Qמינצי, ולי,אבן שושן, שלמה, 1910-2004  (מחבר תוכן טקסטואלי נוסף)  $$Qאבן שושן, שלמה, 1910-2004</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ברגשטיין, פניה, 1908-1950; Children's stories, Hebrew,Children's stories, Hebrew; Animals -- Juvenile fiction; Lost and found possessions -- Juvenile fiction</t>
+          <t>Children's stories, Hebrew; Animals -- Juvenile fiction; Lost and found possessions -- Juvenile fiction,ברגשטיין, פניה, 1908-1950; Children's stories, Hebrew</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1524,17 +1524,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>כל הכבוד לאמנדה ולתנין שלה! / ספר ואיר מו וילמס ; מאנגלית - רונית רוקאס ; עורכת - רונית רוקאס.,כל הכבוד לאמנדה ולתנין שלה / מו וילמס ; מספרת אלמה דישי.</t>
+          <t>כל הכבוד לאמנדה ולתנין שלה / מו וילמס ; מספרת אלמה דישי.,כל הכבוד לאמנדה ולתנין שלה! / ספר ואיר מו וילמס ; מאנגלית - רונית רוקאס ; עורכת - רונית רוקאס.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>רוקאס, רונית  $$Qרוקאס, רונית,דישי, אלמה  (דובר)  $$Qדישי, אלמה</t>
+          <t>דישי, אלמה  (דובר)  $$Qדישי, אלמה,רוקאס, רונית  $$Qרוקאס, רונית</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21177441940005171,NNL_ALEPH11349306990005171</t>
+          <t>NNL_ALEPH11349306990005171,NNL_ALEPH21177441940005171</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1559,12 +1559,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>68, [1] עמודים : איורים צבעוניים ; 22X28 ס"מ.,1 מקור מקוון.</t>
+          <t>1 מקור מקוון.,68, [1] עמודים : איורים צבעוניים ; 22X28 ס"מ.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20150101,20130101</t>
+          <t>20130101,20150101</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>בטח יש ילד / אלעד וינגרד, תמר קלנר-בוקי ; [ג'אנג פינג תרגם לסינית].,בטח יש ילד / אלעד וינגרד; קריינות: אלעד וינגרד.</t>
+          <t>בטח יש ילד / אלעד וינגרד; קריינות: אלעד וינגרד.,בטח יש ילד / אלעד וינגרד, תמר קלנר-בוקי ; [ג'אנג פינג תרגם לסינית].</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21231700300005171,NNL_ALEPH71264111720005171</t>
+          <t>NNL_ALEPH71264111720005171,NNL_ALEPH21231700300005171</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1631,27 +1631,27 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>20180101,20090101</t>
+          <t>20090101,20180101</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[תל אביב] : אגם,תל אביב : iCast</t>
+          <t>תל אביב : iCast,[תל אביב] : אגם</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>heb;chi,heb</t>
+          <t>heb,heb;chi</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>990048970770205171,990026717620205171</t>
+          <t>990026717620205171,990048970770205171</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1686,6 +1686,11 @@
       <c r="F11" t="inlineStr">
         <is>
           <t>Happiness -- Songs and music</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>הרצליה : החברה לחקר האדם והסובב</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2215,7 +2220,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>אור יהודה : כנרת בית הוצאה לאור,תל אביב : iCast</t>
+          <t>תל אביב : iCast,אור יהודה : כנרת בית הוצאה לאור</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2225,12 +2230,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>990037696310205171,990039034150205171</t>
+          <t>990039034150205171,990037696310205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -2445,12 +2450,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ידי הזהב של קלואי / קלי דיפוצ'יו ; מספרת תמר חנה שטיירמן.,ידי הזהב של קלואי / מאת קלי דיפוצ'יו ; איורים: הת'ר רוס ; מאנגלית: רונית רוקאס ; עריכה לשונית: ניצה פלד.</t>
+          <t>ידי הזהב של קלואי / מאת קלי דיפוצ'יו ; איורים: הת'ר רוס ; מאנגלית: רונית רוקאס ; עריכה לשונית: ניצה פלד.,ידי הזהב של קלואי / קלי דיפוצ'יו ; מספרת תמר חנה שטיירמן.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>רוס, הת'ר  (מאייר)  $$Qרוס, הת'ר,חנה שטיירמן, תמר  (דובר)  $$Qחנה שטיירמן, תמר</t>
+          <t>חנה שטיירמן, תמר  (דובר)  $$Qחנה שטיירמן, תמר,רוס, הת'ר  (מאייר)  $$Qרוס, הת'ר</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2475,12 +2480,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302894590005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243396</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243396,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302894590005171</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>24 עמודים לא ממוספרים : איורים צבעוניים ; 29 ס"מ.,1 מקור מקוון.</t>
+          <t>1 מקור מקוון.,24 עמודים לא ממוספרים : איורים צבעוניים ; 29 ס"מ.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2490,7 +2495,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד וטל מאי,תל אביב : iCast</t>
+          <t>תל אביב : iCast,תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד וטל מאי</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2505,7 +2510,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -2542,7 +2547,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2559,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>כביב, סילביה, 1964-  (מאייר)  $$Qכביב, סילביה, 1964-,בן עמי, יובל, 1976-  (דובר)  $$Qבן עמי, יובל, 1976-</t>
+          <t>בן עמי, יובל, 1976-  (דובר)  $$Qבן עמי, יובל, 1976-,כביב, סילביה, 1964-  (מאייר)  $$Qכביב, סילביה, 1964-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2579,24 +2584,24 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>דיאן ואני / שירלי יובל-יאיר ד"ר טל בן-שחר ; איורים: איה גורדון-נוי ; עורכת הספר: תמי הראל.,דיאן ואני / שירלי יובל יאיר וטל בן שחר ; מספרת שירלי יובל יאיר.</t>
+          <t>דיאן ואני / שירלי יובל יאיר וטל בן שחר ; מספרת שירלי יובל יאיר.,דיאן ואני / שירלי יובל-יאיר ד"ר טל בן-שחר ; איורים: איה גורדון-נוי ; עורכת הספר: תמי הראל.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>בן שחר, טל  (מחבר)  $$Qבן שחר, טל,בן שחר, טל, 1970-  (מחבר)  $$Qבן שחר, טל, 1970-</t>
+          <t>בן שחר, טל, 1970-  (מחבר)  $$Qבן שחר, טל, 1970-,בן שחר, טל  (מחבר)  $$Qבן שחר, טל</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21248906760005171,NNL_ALEPH11361321360005171</t>
+          <t>NNL_ALEPH11361321360005171,NNL_ALEPH21248906760005171</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2606,7 +2611,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>יובל-יאיר, שירלי מחבר דובר$$Qיובל-יאיר, שירלי,יובל-יאיר, שירלי מחבר$$Qיובל-יאיר, שירלי</t>
+          <t>יובל-יאיר, שירלי מחבר$$Qיובל-יאיר, שירלי,יובל-יאיר, שירלי מחבר דובר$$Qיובל-יאיר, שירלי</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2616,7 +2621,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302914980005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243594</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243594,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302914980005171</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2631,7 +2636,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>אור יהודה : כנרת בית הוצאה לאור,תל אביב : iCast</t>
+          <t>תל אביב : iCast,אור יהודה : כנרת בית הוצאה לאור</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2646,12 +2651,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21248906760005171,The National Library of Israel</t>
+          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21248906760005171</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2725,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71295545920005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21221852870005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21221852870005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71295545920005171</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ימאדה, קובי מחבר$$Qימאדה, קובי,ימאדה, קובי$$Qימאדה, קובי</t>
+          <t>ימאדה, קובי$$Qימאדה, קובי,ימאדה, קובי מחבר$$Qימאדה, קובי</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2745,7 +2750,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>צלטנר הוצאה לאור.,תל אביב : צלטנר ספרים של ילדים</t>
+          <t>תל אביב : צלטנר ספרים של ילדים,צלטנר הוצאה לאור.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2765,7 +2770,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21221852870005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21221852870005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2809,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>הנמר של שלמה המלך / שלומית כהן-אסיף ; מספר אוסנת וישינסקי.,הנמר של שלמה המלך / שלומית כהן-אסיף ; איורים: גיל-לי אלון קוריאל ; עריכה: נרי אלומה.</t>
+          <t>הנמר של שלמה המלך / שלומית כהן-אסיף ; איורים: גיל-לי אלון קוריאל ; עריכה: נרי אלומה.,הנמר של שלמה המלך / שלומית כהן-אסיף ; מספר אוסנת וישינסקי.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2814,12 +2819,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21171192730005171,NNL_ALEPH11361320400005171</t>
+          <t>NNL_ALEPH11361320400005171,NNL_ALEPH21171192730005171</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171192730005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361320400005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361320400005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171192730005171</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2849,7 +2854,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>בני-ברק : ספרית פועלים - הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,בני-ברק : ספרית פועלים - הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2859,12 +2864,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>990039035280205171,990037495150205171</t>
+          <t>990037495150205171,990039035280205171</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2973,7 +2978,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>book,archive</t>
+          <t>archive,book</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3208,17 +3213,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>מלך המלח ונסיך הפלפל / אפרים סידון; קריינות: רמי ברוך.,מלך המלח ונסיך הפלפל / כתב: אפרים סידון ; אייר: דני קרמן ; עריכה: דלית לב.</t>
+          <t>מלך המלח ונסיך הפלפל / כתב: אפרים סידון ; אייר: דני קרמן ; עריכה: דלית לב.,מלך המלח ונסיך הפלפל / אפרים סידון; קריינות: רמי ברוך.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>לב, דלית  (עורך)  $$Qלב, דלית,ברוך, רמי, 1955-  (דובר)  $$Qברוך, רמי, 1955-</t>
+          <t>ברוך, רמי, 1955-  (דובר)  $$Qברוך, רמי, 1955-,לב, דלית  (עורך)  $$Qלב, דלית</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11375555420005171,NNL_ALEPH21268338270005171</t>
+          <t>NNL_ALEPH21268338270005171,NNL_ALEPH11375555420005171</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3253,7 +3258,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>תל אביב : הוצאת ספרים עם עובד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,תל אביב : הוצאת ספרים עם עובד</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3268,7 +3273,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -3280,7 +3285,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>בול הגדול מכולם / יואל פלדמן ; מספר מתן אחיאסף.,בול הגדול מכולם / כתב ואייר: יואל פלדמן ; עריכה וניקוד: עפרה גלברט-אבני.</t>
+          <t>בול הגדול מכולם / כתב ואייר: יואל פלדמן ; עריכה וניקוד: עפרה גלברט-אבני.,בול הגדול מכולם / יואל פלדמן ; מספר מתן אחיאסף.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3290,12 +3295,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11349307270005171,NNL_ALEPH21210581800005171</t>
+          <t>NNL_ALEPH21210581800005171,NNL_ALEPH11349307270005171</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21210581800005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11349307270005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11349307270005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21210581800005171</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3310,7 +3315,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303062300005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243162</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243162,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303062300005171</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3320,12 +3325,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>20150101,20140101</t>
+          <t>20140101,20150101</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>נתניה : הוצאת אחיאסף,תל אביב : iCast</t>
+          <t>תל אביב : iCast,נתניה : הוצאת אחיאסף</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3335,17 +3340,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>990039034720205171,990037534760205171</t>
+          <t>990037534760205171,990039034720205171</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21210581800005171,The National Library of Israel</t>
+          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21210581800005171</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3387,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>20160101,20150101</t>
+          <t>20150101,20160101</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3392,7 +3397,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>book,archive</t>
+          <t>archive,book</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3496,12 +3501,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302546470005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302946000005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302946000005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302546470005171</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>20160101,20140101</t>
+          <t>20140101,20160101</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3511,7 +3516,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3691,7 +3696,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Children's literature, Hebrew; Children's literature, Israeli,Children's stories, Hebrew; Children's literature, Hebrew; Children's literature, Israeli</t>
+          <t>Children's stories, Hebrew; Children's literature, Hebrew; Children's literature, Israeli,Children's literature, Hebrew; Children's literature, Israeli</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3738,12 +3743,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304585420005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302759870005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302759870005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304585420005171</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20170101,20140101</t>
+          <t>20140101,20170101</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -3753,7 +3758,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3842,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19740101,20150101</t>
+          <t>20150101,19740101</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -3854,17 +3859,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>המרוץ אחר המדליה ההודית / יוסי גודארד; קריינות: עמית גור.,המרוץ אחר המדליה ההודית / יוסי גודארד ; איורים: דני קרמן ; עריכה: יונה טפר.</t>
+          <t>המרוץ אחר המדליה ההודית / יוסי גודארד ; איורים: דני קרמן ; עריכה: יונה טפר.,המרוץ אחר המדליה ההודית / יוסי גודארד; קריינות: עמית גור.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>גור, עמית (שחקן)  (דובר)  $$Qגור, עמית (שחקן),קרמן, דני, 1940-  (מאייר)  $$Qקרמן, דני, 1940-</t>
+          <t>קרמן, דני, 1940-  (מאייר)  $$Qקרמן, דני, 1940-,גור, עמית (שחקן)  (דובר)  $$Qגור, עמית (שחקן)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11375563560005171,NNL_ALEPH21187252570005171</t>
+          <t>NNL_ALEPH21187252570005171,NNL_ALEPH11375563560005171</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3889,17 +3894,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>79 עמודים : איורים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>1 מקור מקוון.,79 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20160101,20150101</t>
+          <t>20150101,20160101</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[בני ברק] : הוצאת הקבוץ המאוחד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,[בני ברק] : הוצאת הקבוץ המאוחד</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -3909,17 +3914,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>990038393960205171,990048845020205171</t>
+          <t>990048845020205171,990038393960205171</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21187252570005171,The National Library of Israel</t>
+          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21187252570005171</t>
         </is>
       </c>
     </row>
@@ -3951,22 +3956,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Milk -- Juvenile fiction; Human-alien encounters -- Juvenile fiction; Pirates -- Juvenile fiction; Time travel -- Juvenile fiction; Children's stories, American -- Translations into Hebrew,Children's stories, English -- 21st century; Children's stories -- Translations into Hebrew; Humorous stories</t>
+          <t>Children's stories, English -- 21st century; Children's stories -- Translations into Hebrew; Humorous stories,Milk -- Juvenile fiction; Human-alien encounters -- Juvenile fiction; Pirates -- Juvenile fiction; Time travel -- Juvenile fiction; Children's stories, American -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12496993370005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302917350005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302917350005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12496993370005171</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120, 6 עמודים לא ממוספרים : איורים ; 21 ס"מ,120 עמודים, 3 עמודים לא ממוספרים : איורים ; 21 ס"מ.</t>
+          <t>120 עמודים, 3 עמודים לא ממוספרים : איורים ; 21 ס"מ.,120, 6 עמודים לא ממוספרים : איורים ; 21 ס"מ</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20220101,20140101</t>
+          <t>20140101,20220101</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3981,7 +3986,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>990037848370205171,997010693077205171</t>
+          <t>997010693077205171,990037848370205171</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -4065,7 +4070,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>אופק, עטרה, 1953-  (מתרגם)  $$Qאופק, עטרה, 1953-,זייברט-טל, דנה  (מתרגם)  $$Qזייברט-טל, דנה</t>
+          <t>זייברט-טל, דנה  (מתרגם)  $$Qזייברט-טל, דנה,אופק, עטרה, 1953-  (מתרגם)  $$Qאופק, עטרה, 1953-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4129,12 +4134,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>המעודדת הסודית של תיקי / יונה טפר ; מספר נתלי פיינשטיין.,המעודדת הסודית של תיקי / כתבה: יונה טפר ; איורים: אלינה גורבן ; עריכה: נרי אלומה.</t>
+          <t>המעודדת הסודית של תיקי / כתבה: יונה טפר ; איורים: אלינה גורבן ; עריכה: נרי אלומה.,המעודדת הסודית של תיקי / יונה טפר ; מספר נתלי פיינשטיין.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>פיינשטיין, נתלי  (דובר)  $$Qפיינשטיין, נתלי,גורבן, אלינה  (מאייר)  $$Qגורבן, אלינה</t>
+          <t>גורבן, אלינה  (מאייר)  $$Qגורבן, אלינה,פיינשטיין, נתלי  (דובר)  $$Qפיינשטיין, נתלי</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4184,12 +4189,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>990038287250205171,990039034340205171</t>
+          <t>990039034340205171,990038287250205171</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4263,7 +4268,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268325200005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375598140005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375598140005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268325200005171</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -4288,12 +4293,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20160101,20150101</t>
+          <t>20150101,20160101</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -4308,7 +4313,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4424,7 +4429,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>בלב הגבעה המסתורית / אורה מורג ; עריכה: עפרה גלברט-אבני ; עורך היסטורי: אריה רוקח ; איורים: גל אור.,בלב הגבעה המסתורית / אורה מורג ; מספרת אורה מורג.</t>
+          <t>בלב הגבעה המסתורית / אורה מורג ; מספרת אורה מורג.,בלב הגבעה המסתורית / אורה מורג ; עריכה: עפרה גלברט-אבני ; עורך היסטורי: אריה רוקח ; איורים: גל אור.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4434,17 +4439,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21268328870005171,NNL_ALEPH11361336580005171</t>
+          <t>NNL_ALEPH11361336580005171,NNL_ALEPH21268328870005171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361336580005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268328870005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268328870005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361336580005171</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>מורג, אורה, 1943- מחבר דובר$$Qמורג, אורה, 1943-,מורג, אורה, 1943- מחבר$$Qמורג, אורה, 1943-</t>
+          <t>מורג, אורה, 1943- מחבר$$Qמורג, אורה, 1943-,מורג, אורה, 1943- מחבר דובר$$Qמורג, אורה, 1943-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4454,7 +4459,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304967470005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242609</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242609,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304967470005171</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4484,7 +4489,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4501,7 +4506,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>בר גיל, גילה  (מתרגם)  $$Qבר גיל, גילה,כץ, יואב, 1965-  (מתרגם)  $$Qכץ, יואב, 1965-</t>
+          <t>כץ, יואב, 1965-  (מתרגם)  $$Qכץ, יואב, 1965-,בר גיל, גילה  (מתרגם)  $$Qבר גיל, גילה</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4521,17 +4526,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lassie (Fictitious character) -- Juvenile fiction; Dogs -- Juvenile fiction; Human-animal relationships -- Juvenile fiction; Children's stories, English -- Translations into Hebrew,Children's stories, American -- 20th century; Children's stories -- Translations into Hebrew; Dogs -- Juvenile fiction</t>
+          <t>Children's stories, American -- 20th century; Children's stories -- Translations into Hebrew; Dogs -- Juvenile fiction,Lassie (Fictitious character) -- Juvenile fiction; Dogs -- Juvenile fiction; Human-animal relationships -- Juvenile fiction; Children's stories, English -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305012520005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12537332210005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12537332210005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305012520005171</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>251 עמודים, 2 עמודים לא ממוספרים : איורים ; 22 ס"מ.,207 עמודים : איורים ; 25 ס"מ</t>
+          <t>207 עמודים : איורים ; 25 ס"מ,251 עמודים, 2 עמודים לא ממוספרים : איורים ; 22 ס"מ.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4541,7 +4546,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>בן שמן : אוקיינוס ; מודן,כפר מונש : עופרים הוצאה לאור</t>
+          <t>כפר מונש : עופרים הוצאה לאור,בן שמן : אוקיינוס ; מודן</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4828,7 +4833,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>תראו מה עשיתם! / סטפן פסטיס ; מאנגלית: ארז אשרוב.,טימי טעות - אף אחד לא מושלם / סטפן פסטיס ; מאנגלית: ארז אשרוב .</t>
+          <t>טימי טעות - אף אחד לא מושלם / סטפן פסטיס ; מאנגלית: ארז אשרוב .,תראו מה עשיתם! / סטפן פסטיס ; מאנגלית: ארז אשרוב.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4838,12 +4843,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21284061360005171,NNL_ALEPH21233894050005171</t>
+          <t>NNL_ALEPH21233894050005171,NNL_ALEPH21284061360005171</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21284061360005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21233894050005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21233894050005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21284061360005171</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4853,12 +4858,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Private investigators -- Juvenile fiction; Bears -- Juvenile fiction; Humorous stories; Detective and mystery stories; Friendship -- Juvenile fiction,Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Private investigators -- Juvenile fiction; Bears -- Juvenile fiction; Humorous stories; Detective and mystery stories; Friendship -- Juvenile fiction; Lost and found possessions -- Juvenile fiction</t>
+          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Private investigators -- Juvenile fiction; Bears -- Juvenile fiction; Humorous stories; Detective and mystery stories; Friendship -- Juvenile fiction; Lost and found possessions -- Juvenile fiction,Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Private investigators -- Juvenile fiction; Bears -- Juvenile fiction; Humorous stories; Detective and mystery stories; Friendship -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304537260005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303083970005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303083970005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304537260005171</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4868,7 +4873,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>אור יהודה : כנרת, זמורה-ביתן, דביר - מוציאים לאור,אור יהודה : כנרת, זמורה-ביתן - מוציאים לאור</t>
+          <t>אור יהודה : כנרת, זמורה-ביתן - מוציאים לאור,אור יהודה : כנרת, זמורה-ביתן, דביר - מוציאים לאור</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4878,7 +4883,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>990037050910205171,990038870500205171</t>
+          <t>990038870500205171,990037050910205171</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4888,7 +4893,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21284061360005171,$$VThe National Library of Israel$$ONNL_ALEPH21233894050005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21233894050005171,$$VThe National Library of Israel$$ONNL_ALEPH21284061360005171</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4905,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>בנאי, אורי  (דובר)  $$Qבנאי, אורי,אלברט, יעל  (מאייר)  $$Qאלברט, יעל</t>
+          <t>אלברט, יעל  (מאייר)  $$Qאלברט, יעל,בנאי, אורי  (דובר)  $$Qבנאי, אורי</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4920,7 +4925,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302604090005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE37261249</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE37261249,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302604090005171</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4945,7 +4950,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5055,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>סלפי אחד יותר מדי / דנה אבירם ; עריכה: הלנה מגר-טלמור.,סלפי אחד יותר מדי / דנה אבירם ; מספר נתלי פיינשטיין.</t>
+          <t>סלפי אחד יותר מדי / דנה אבירם ; מספר נתלי פיינשטיין.,סלפי אחד יותר מדי / דנה אבירם ; עריכה: הלנה מגר-טלמור.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5080,7 +5085,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242716,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305007230005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305007230005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242716</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5110,7 +5115,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -5246,12 +5251,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11361307110005171,NNL_ALEPH21284064690005171</t>
+          <t>NNL_ALEPH21284064690005171,NNL_ALEPH11361307110005171</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21284064690005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361307110005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361307110005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21284064690005171</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -5266,7 +5271,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303094280005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242940</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242940,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303094280005171</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -5281,7 +5286,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Tel Aviv : הוצאת הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,Tel Aviv : הוצאת הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -5296,7 +5301,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -5331,14 +5336,9 @@
           <t>Manga (Comic books)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE8788541</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1 קלטת וידאו (כ-42 דקות) : קול, צבע ; 1/2 אינץ'</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>19760101</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -5576,7 +5576,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>אגם הצללים / עורכים: שמעון ריקלין וצפריר בשן.,אגם הצללים / רוני גלבפיש; קריינות: רוני גלבפיש.</t>
+          <t>אגם הצללים / רוני גלבפיש; קריינות: רוני גלבפיש.,אגם הצללים / עורכים: שמעון ריקלין וצפריר בשן.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5586,17 +5586,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NNL_ALEPH71270217720005171,NNL_ALEPH21218561910005171</t>
+          <t>NNL_ALEPH21218561910005171,NNL_ALEPH71270217720005171</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71270217720005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21218561910005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21218561910005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71270217720005171</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>גלבפיש, רוני, 1969- מחבר$$Qגלבפיש, רוני, 1969-,גלבפיש, רוני, 1969- מחבר דובר$$Qגלבפיש, רוני, 1969-</t>
+          <t>גלבפיש, רוני, 1969- מחבר דובר$$Qגלבפיש, רוני, 1969-,גלבפיש, רוני, 1969- מחבר$$Qגלבפיש, רוני, 1969-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -5611,17 +5611,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>462 עמודים, 1 עמוד לא ממוספר ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>1 מקור מקוון.,462 עמודים, 1 עמוד לא ממוספר ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20160101,20150101</t>
+          <t>20150101,20160101</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ישראל : דג זהב הוצאה לאור,תל אביב : iCast</t>
+          <t>תל אביב : iCast,ישראל : דג זהב הוצאה לאור</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -5695,12 +5695,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21238435100005171,NNL_ALEPH21268312320005171</t>
+          <t>NNL_ALEPH21268312320005171,NNL_ALEPH21238435100005171</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21238435100005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268312320005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268312320005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21238435100005171</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>458 עמודים, 6 עמודים לא ממוספרים : איורים צבעוניים ; 21 ס"מ.,487 עמודים : איורים ; 21 ס"מ.</t>
+          <t>487 עמודים : איורים ; 21 ס"מ.,458 עמודים, 6 עמודים לא ממוספרים : איורים צבעוניים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>990043673530205171,990038235340205171</t>
+          <t>990038235340205171,990043673530205171</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>גוטמן, דיטה  (עורך)  $$Qגוטמן, דיטה,ענבר, יעל  $$Qענבר, יעל</t>
+          <t>ענבר, יעל  $$Qענבר, יעל,גוטמן, דיטה  (עורך)  $$Qגוטמן, דיטה</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5819,12 +5819,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>לורי, לויס מחבר$$Qלורי, לויס,לורי, לויס$$Qלורי, לויס</t>
+          <t>לורי, לויס$$Qלורי, לויס,לורי, לויס מחבר$$Qלורי, לויס</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fiction -- Translations into Hebrew; Science fiction; Orphans -- Fiction; People with disabilities -- Fiction,Artists -- Fiction; Orphans -- Fiction; People with disabilities -- Fiction; Science fiction</t>
+          <t>Artists -- Fiction; Orphans -- Fiction; People with disabilities -- Fiction; Science fiction,Fiction -- Translations into Hebrew; Science fiction; Orphans -- Fiction; People with disabilities -- Fiction</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -5834,12 +5834,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>187 עמודים ; 21 ס"מ.,200 עמודים ; 21 ס"מ.</t>
+          <t>200 עמודים ; 21 ס"מ.,187 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20020101,20140101</t>
+          <t>20140101,20020101</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -5871,12 +5871,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>בודדים בשנחאי / אורית עוזיאל; קריינות: תמר עמית-יוסף.,בודדים בשנחאי / אורית עוזיאל ; עריכה: נרי אלומה.</t>
+          <t>בודדים בשנחאי / אורית עוזיאל ; עריכה: נרי אלומה.,בודדים בשנחאי / אורית עוזיאל; קריינות: תמר עמית-יוסף.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>אלומה, נרי, 1963-  (עורך)  $$Qאלומה, נרי, 1963-,עמית יוסף, תמר, 1994-  (דובר)  $$Qעמית יוסף, תמר, 1994-</t>
+          <t>עמית יוסף, תמר, 1994-  (דובר)  $$Qעמית יוסף, תמר, 1994-,אלומה, נרי, 1963-  (עורך)  $$Qאלומה, נרי, 1963-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>בני ברק : ספרית פועלים - הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,בני ברק : ספרית פועלים - הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -5926,12 +5926,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>990037494470205171,990048844380205171</t>
+          <t>990048844380205171,990037494470205171</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21173442380005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21265706750005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21265706750005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21173442380005171</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mahzor,Children's stories, German -- 21st century; Children's stories -- Translations into Hebrew; Paranormal fiction; Fantasy -- Juvenile fiction</t>
+          <t>Children's stories, German -- 21st century; Children's stories -- Translations into Hebrew; Paranormal fiction; Fantasy -- Juvenile fiction,Mahzor</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -6062,12 +6062,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>yid,heb</t>
+          <t>heb,yid</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>990035352840205171,990013725780205171</t>
+          <t>990013725780205171,990035352840205171</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21173442380005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21173442380005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -6089,12 +6089,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>פירון, מאירה, 1966-  (מתרגם)  $$Qפירון, מאירה, 1966-,חנה שטיירמן, תמר  (דובר)  $$Qחנה שטיירמן, תמר</t>
+          <t>חנה שטיירמן, תמר  (דובר)  $$Qחנה שטיירמן, תמר,פירון, מאירה, 1966-  (מתרגם)  $$Qפירון, מאירה, 1966-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21233467250005171,NNL_ALEPH11349307950005171</t>
+          <t>NNL_ALEPH11349307950005171,NNL_ALEPH21233467250005171</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>א. פירסון, מרי מחבר$$Qא. פירסון, מרי,פירסון, מרי א. מחבר$$Qפירסון, מרי א</t>
+          <t>פירסון, מרי א. מחבר$$Qפירסון, מרי א,א. פירסון, מרי מחבר$$Qא. פירסון, מרי</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד וטל מאי,תל אביב : iCast</t>
+          <t>תל אביב : iCast,תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד וטל מאי</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -6575,14 +6575,14 @@
           <t>אהרנוביץ, צבי מלחין$$Qאהרנוביץ, צבי</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE202478647</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>1 filmstrip (1 frame) : b/w ; 35mm.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>20090101</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6624,12 +6624,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21227622810005171,NNL_ALEPH21228505080005171</t>
+          <t>NNL_ALEPH21228505080005171,NNL_ALEPH21227622810005171</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21227622810005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21228505080005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21228505080005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21227622810005171</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303891200005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302746140005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302746140005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303891200005171</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>990013494650205171,990027866470205171</t>
+          <t>990027866470205171,990013494650205171</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>נתניה : הספריה המרכזית לעיוורים, כבדי ראיה ומוגבלים,תל אביב וירושלים : הוצאת שוקן</t>
+          <t>תל אביב וירושלים : הוצאת שוקן,נתניה : הספריה המרכזית לעיוורים, כבדי ראיה ומוגבלים</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21169177170005171,NNL_MUSIC_AL71399218430005171</t>
+          <t>NNL_MUSIC_AL71399218430005171,NNL_ALEPH21169177170005171</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jules Verne 1828-1905 author$$QVerne, Jules, 1828-1905,תורן, דן, 1960-2024 מלחין מחבר$$Qתורן, דן, 1960-2024</t>
+          <t>תורן, דן, 1960-2024 מלחין מחבר$$Qתורן, דן, 1960-2024,Jules Verne 1828-1905 author$$QVerne, Jules, 1828-1905</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>20120101,20140101</t>
+          <t>20140101,20120101</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -7921,14 +7921,14 @@
           <t>אהרנוביץ, צבי מלחין$$Qאהרנוביץ, צבי</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE202478647</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>1 filmstrip (1 frame) : b/w ; 35mm.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>20090101</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -7970,12 +7970,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21227622810005171,NNL_ALEPH21228505080005171</t>
+          <t>NNL_ALEPH21228505080005171,NNL_ALEPH21227622810005171</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21227622810005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21228505080005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21228505080005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21227622810005171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303891200005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302746140005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302746140005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303891200005171</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>990013494650205171,990027866470205171</t>
+          <t>990027866470205171,990013494650205171</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>נתניה : הספריה המרכזית לעיוורים, כבדי ראיה ומוגבלים,תל אביב וירושלים : הוצאת שוקן</t>
+          <t>תל אביב וירושלים : הוצאת שוקן,נתניה : הספריה המרכזית לעיוורים, כבדי ראיה ומוגבלים</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21169177170005171,NNL_MUSIC_AL71399218430005171</t>
+          <t>NNL_MUSIC_AL71399218430005171,NNL_ALEPH21169177170005171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jules Verne 1828-1905 author$$QVerne, Jules, 1828-1905,תורן, דן, 1960-2024 מלחין מחבר$$Qתורן, דן, 1960-2024</t>
+          <t>תורן, דן, 1960-2024 מלחין מחבר$$Qתורן, דן, 1960-2024,Jules Verne 1828-1905 author$$QVerne, Jules, 1828-1905</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>20120101,20140101</t>
+          <t>20140101,20120101</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">

--- a/excel/2016.xlsx
+++ b/excel/2016.xlsx
@@ -501,27 +501,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>בקר בהיר אחד / אורה איל ; עבוד: עדנה קרמר ; עריכת המהדורה של ספריית פיג'מה: נרי אלומה.,בוקר בהיר אחד / אורה איל ; מספר ניקו בר.</t>
+          <t>בקר בהיר אחד / אורה איל ; עבוד: עדנה קרמר ; עריכת המהדורה של ספריית פיג'מה: נרי אלומה.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>קרמר, עדנה, 1937-  (עורך)  $$Qקרמר, עדנה, 1937-,בר, ניקו, 1955-  (דובר)  $$Qבר, ניקו, 1955-</t>
+          <t>קרמר, עדנה, 1937-  (עורך)  $$Qקרמר, עדנה, 1937-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11349297310005171,NNL_ALEPH21530505890005171</t>
+          <t>NNL_ALEPH21530505890005171</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11349297310005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21530505890005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21530505890005171</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>איל, אורה, 1946-2011 מחבר$$Qאיל, אורה, 1946-2011,איל, אורה, 1946-2011 מחבר מאייר$$Qאיל, אורה, 1946-2011</t>
+          <t>איל, אורה, 1946-2011 מחבר מאייר$$Qאיל, אורה, 1946-2011</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -531,22 +531,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12531251580005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243036</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12531251580005171</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,28 עמודים, 4 עמודים לא ממוספרים : איורים ; 21 ס"מ.</t>
+          <t>28 עמודים, 4 עמודים לא ממוספרים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20150101</t>
+          <t>תשפ"ד 2023</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>בני ברק : הוצאת הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>בני ברק : הוצאת הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -556,29 +556,59 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>990039034560205171,997012735473505171</t>
+          <t>997012735473505171</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21530505890005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21530505890005171</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>העכבר והתפוח</t>
+          <t>העכבר והתפוח / סטיבן בטלר ; תרגמה מאנגלית נורית זרחי.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>זרחי, נורית, 1941-  $$Qזרחי, נורית, 1941-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21237853360005171</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21237853360005171</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>בטלר, סטיבן, 1962-$$Qבטלר, סטיבן, 1962-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12508072670005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304076630005171</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[28] עמודים : איורים צבעוניים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -586,93 +616,153 @@
           <t>19950101</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>תל אביב : שבא</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>heb</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>990025882320205171</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>book</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>בוא אליי פרפר נחמד</t>
+          <t>בוא אלי פרפר נחמד / כתבה: פניה ברגשטיין ; איירה: אילזה קנטור.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>קורן, אבי, 1945-2021  (מחבר)  $$Qקורן, אבי, 1945-2021</t>
+          <t>קנטור, אילזה, 1911-2000  (מאייר)  $$Qקנטור, אילזה, 1911-2000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71352189830005171</t>
+          <t>NNL_ALEPH21243089410005171</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71352189830005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21243089410005171</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>פיאמנטה, אלברט מלחין$$Qפיאמנטה, אלברט</t>
+          <t>ברגשטיין, פניה, 1908-1950 מחבר$$Qברגשטיין, פניה, 1908-1950</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Children's poetry, Hebrew; Animals -- Juvenile literature; Board books -- Specimens; Toy and movable books</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19690101</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302607680005171</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>16 עמודים לא ממוספרים : איורים צבעוניים ; 25X23 ס"מ + 1 טבלה פלסטיק אלקטרונית (9 לחצנים + רמקול).</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>997009137941505171</t>
+          <t>[תשע"ז בערך]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>dafshir</t>
+          <t>כפר סבא : ספרק טויס</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>990040973730205171</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21243089410005171</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>סינמטק - לוח 1983 - ברווזים.</t>
+          <t>ברוזים / לאה גולדברג ; איורים: רעיה קרס.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>קרס, רעיה  (מאייר)  $$Qקרס, רעיה</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11429136410005171</t>
+          <t>NNL_ALEPH21268297600005171</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429136410005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268297600005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>גולדברג, לאה, 1911-1970 מחבר$$Qגולדברג, לאה, 1911-1970</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Television programs -- Songs and music</t>
+          <t>Children's stories, Hebrew; Stories in rhyme; Ducks -- Juvenile fiction; Board books</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE8791774</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304933850005171</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20 עמודים לא ממוספרים : איורים צבעוניים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[2015]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Bnei-Brak : ספרית פועלים</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -682,72 +772,87 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>997001758730405171</t>
+          <t>990038234490205171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268297600005171</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ביצת ההפתעה / שלמה אבס ; [איורים - שרית בן יוסף].,ביצת ההפתעה / אמילי גרבט ; מאנגלית - תמי הראל.</t>
+          <t>ביצת ההפתעה / אמילי גרבט ; מאנגלית - תמי הראל.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>בן יוסף, שרית  $$Qבן יוסף, שרית,הראל, תמי  $$Qהראל, תמי</t>
+          <t>הראל, תמי  $$Qהראל, תמי</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21246407000005171,NNL_ALEPH21255382570005171</t>
+          <t>NNL_ALEPH21246407000005171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21255382570005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21246407000005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21246407000005171</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>אבס, שלמה, 1948-$$Qאבס, שלמה, 1948-,גרבט, אמילי$$Qגרבט, אמילי</t>
+          <t>גרבט, אמילי$$Qגרבט, אמילי</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century,Children's stories, English -- Translations into Hebrew; Eggs -- Juvenile fiction; Ducks -- Juvenile fiction; Birds -- Juvenile literature</t>
+          <t>Children's stories, English -- Translations into Hebrew; Eggs -- Juvenile fiction; Ducks -- Juvenile fiction; Birds -- Juvenile literature</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[42] עמודים : איורים צבעוניים ; 17 X 25 ס"מ.,[14] עמודים : איורים צבעוניים ; 30X22 ס"מ.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>20040101</t>
+          <t>[14] עמודים : איורים צבעוניים ; 30X22 ס"מ.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>אור-יהודה : כנרת,הוד השרון : עגור</t>
+          <t>תש"ע 2010</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>אור-יהודה : כנרת</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>990023617960205171,990027201940205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990027201940205171</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -796,25 +901,30 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>תשע"ה 2014</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>[תל אביב] : זברה הפקות</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>990037787960205171</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21243475430005171</t>
         </is>
@@ -925,35 +1035,40 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>[26] עמודים : איורים צבעוניים ; 17 ס"מ.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>20120101</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Bnei-Brak : ספרית פועלים</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>990034292080205171</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -962,89 +1077,79 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>יובל המבלבל</t>
+          <t>יובל המבלבל / מרים רות ; איורים - יונת קציר-גולן.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>קציר-גולן, יונת  $$Qקציר-גולן, יונת</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21211438690005171</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21211438690005171</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>רות, מרים, 1910-2005$$Qרות, מרים, 1910-2005</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stories in rhyme; Children's literature, Israeli,Colors -- Juvenile literature</t>
+          <t>Stories in rhyme; Children's literature, Israeli</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303797290005171</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>30, [2] עמודים : איורים צבעוניים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>תש"ס 2000</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>תל אביב : ספרית פועלים</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>heb</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>990020243160205171</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21211438690005171</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>מה הסיפור שלך</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>גל, תמיר  (מבצע)  $$Qגל, תמיר</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>NNL_MUSIC_AL11369551100005171</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL11369551100005171</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>פירסטטר רונית$$Qפירסטטר רונית</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Reading (Elementary) -- Hebrew -- Israel -- Textbooks; Reading (Elementary) -- Israel; Reading comprehension -- Israel; Reading comprehension -- Israel -- Textbooks; Reading -- Remedial teaching -- Textbooks</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE190496460,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12497019830005171</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1 מקור מקוון (234 עמודים)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>20140101</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>אלי אזרזר הפקות</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>990047413150205171</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>reccomm</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>על מה הסיפור? / שניר מיריק</t>
         </is>
       </c>
     </row>
@@ -1142,22 +1247,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>מעשה באביגיל שאבדה לה שנת הליל / רות אורן ; מספר שושיק שני.,מעשה באביגיל שאבדה לה שנת הליל / רות אורן ; איורים: כנרת גילדר ; עריכה: יונה טפר.</t>
+          <t>מעשה באביגיל שאבדה לה שנת הליל / רות אורן ; איורים: כנרת גילדר ; עריכה: יונה טפר.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>גילדר, כנרת  (מאייר)  $$Qגילדר, כנרת,שני, שושיק, 1935-  (דובר)  $$Qשני, שושיק, 1935-</t>
+          <t>גילדר, כנרת  (מאייר)  $$Qגילדר, כנרת</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11361314110005171,NNL_ALEPH21171926450005171</t>
+          <t>NNL_ALEPH21171926450005171</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361314110005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171926450005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171926450005171</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1172,22 +1277,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305076990005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243515</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305076990005171</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,28 עמודים לא ממוספרים : איורים צבעוניים ; 23 ס"מ.</t>
+          <t>28 עמודים לא ממוספרים : איורים צבעוניים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20150101</t>
+          <t>תשע"ה 2015</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>בני ברק : הוצאת הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>בני ברק : הוצאת הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1197,24 +1302,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>990039035130205171,990038064860205171</t>
+          <t>990038064860205171</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171926450005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171926450005171</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>כשאהיה ראש ממשלה / נרי אלומה ; איורים: נעם נדב ; עריכה: יונה טפר.,כשאהיה ראש ממשלה / נרי אלומה ; מספר נרי אלומה.</t>
+          <t>כשאהיה ראש ממשלה / נרי אלומה ; איורים: נעם נדב ; עריכה: יונה טפר.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1224,17 +1329,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11349295690005171,NNL_ALEPH21200754450005171</t>
+          <t>NNL_ALEPH21200754450005171</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11349295690005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21200754450005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21200754450005171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>אלומה, נרי, 1963- מחבר דובר$$Qאלומה, נרי, 1963-,אלומה, נרי, 1963- מחבר$$Qאלומה, נרי, 1963-</t>
+          <t>אלומה, נרי, 1963- מחבר$$Qאלומה, נרי, 1963-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1244,22 +1349,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243362,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305055190005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305055190005171</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,24 עמודים לא ממוספרים : איורים צבעוניים ; 25 ס"מ.</t>
+          <t>24 עמודים לא ממוספרים : איורים צבעוניים ; 25 ס"מ.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20150101</t>
+          <t>תשע"ה 2015</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,[בני ברק] : הוצאת הקיבוץ המאוחד</t>
+          <t>[בני ברק] : הוצאת הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1269,24 +1374,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>990039034950205171,990038287320205171</t>
+          <t>990038287320205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21200754450005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21200754450005171</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>עוד ספור אחרון / עילם בן-דרור ; איורים: שחר קובר ; עורכת ספרי מטר לילדים: נעה סמלסון.</t>
+          <t>עוד ספור אחרון / עילם בן-דרור ; איורים: שחר קובר.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1296,12 +1401,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21342579450005171</t>
+          <t>NNL_ALEPH21227986430005171</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21342579450005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21227986430005171</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1311,54 +1416,69 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Children -- Books and reading -- Juvenile fiction; Safaris -- Juvenile fiction; Animals -- Juvenile fiction; Fathers and sons; Stories in rhyme</t>
+          <t>Children's stories, Hebrew -- 21st century; Stories in rhyme; Imagination -- Juvenile fiction; Animals -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12343921590005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304993500005171</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>28 עמודים לא ממוספרים : איורים צבעוניים ; 22X20 ס"מ.</t>
+          <t>25 עמודים לא ממוספרים : איורים צבעוניים ; 25 ס"מ.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[תל אביב] : מטר</t>
+          <t>תשע"ה 2015</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>תל אביב : מטר</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>997008752888805171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990038080650205171</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21342579450005171</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21227986430005171</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>חרוזים אדומים</t>
+          <t>חרוזים אדומים / פניה ברגשטיין ; איורים: ולי מינצי ; ערכה: יונה טפר.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>מינצי, ולי  (מאייר)  $$Qמינצי, ולי,אבן שושן, שלמה, 1910-2004  (מחבר תוכן טקסטואלי נוסף)  $$Qאבן שושן, שלמה, 1910-2004</t>
+          <t>מינצי, ולי  (מאייר)  $$Qמינצי, ולי</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21171942760005171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171942760005171</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1368,27 +1488,47 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew; Animals -- Juvenile fiction; Lost and found possessions -- Juvenile fiction,ברגשטיין, פניה, 1908-1950; Children's stories, Hebrew</t>
+          <t>Children's stories, Hebrew; Animals -- Juvenile fiction; Lost and found possessions -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302525180005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304861250005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304861250005171</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24 עמודים : איורים צבעוניים ; 26 ס"מ.,186 עמודים, 2 עמודים לא ממוספרים : איורים ; 24 ס"מ.</t>
+          <t>24 עמודים : איורים צבעוניים ; 26 ס"מ.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>20150101,19860101</t>
+          <t>20150101</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הוצאת הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>990038067300205171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171942760005171</t>
         </is>
       </c>
     </row>
@@ -1420,40 +1560,45 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302895200005171</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>27 עמודים : איורים צבעוניים ; 29 ס"מ.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>20150101</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>990038018250205171</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21233466870005171</t>
         </is>
@@ -1492,30 +1637,40 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>[32] עמודים : איורים צבעוניים ; 27X23 ס"מ.</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>תש"ע 2010</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>אור יהודה : כנרת</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>990027192230205171</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -1524,27 +1679,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>כל הכבוד לאמנדה ולתנין שלה / מו וילמס ; מספרת אלמה דישי.,כל הכבוד לאמנדה ולתנין שלה! / ספר ואיר מו וילמס ; מאנגלית - רונית רוקאס ; עורכת - רונית רוקאס.</t>
+          <t>כל הכבוד לאמנדה ולתנין שלה! / ספר ואיר מו וילמס ; מאנגלית - רונית רוקאס ; עורכת - רונית רוקאס.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>דישי, אלמה  (דובר)  $$Qדישי, אלמה,רוקאס, רונית  $$Qרוקאס, רונית</t>
+          <t>רוקאס, רונית  $$Qרוקאס, רונית</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11349306990005171,NNL_ALEPH21177441940005171</t>
+          <t>NNL_ALEPH21177441940005171</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11349306990005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21177441940005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21177441940005171</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>וילמס, מו מחבר$$Qוילמס, מו,וילמס, מו, 1968-$$Qוילמס, מו, 1968-</t>
+          <t>וילמס, מו, 1968-$$Qוילמס, מו, 1968-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1554,22 +1709,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243258</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,68, [1] עמודים : איורים צבעוניים ; 22X28 ס"מ.</t>
+          <t>68, [1] עמודים : איורים צבעוניים ; 22X28 ס"מ.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20130101,20150101</t>
+          <t>20130101</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>תל אביב : משכל ; טל-מאי,תל אביב : iCast</t>
+          <t>תל אביב : משכל ; טל-מאי</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1579,12 +1734,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>990035915530205171,990039034820205171</t>
+          <t>990035915530205171</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1596,7 +1751,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>בטח יש ילד / אלעד וינגרד; קריינות: אלעד וינגרד.,בטח יש ילד / אלעד וינגרד, תמר קלנר-בוקי ; [ג'אנג פינג תרגם לסינית].</t>
+          <t>בטח יש ילד / אלעד וינגרד, תמר קלנר-בוקי ; [ג'אנג פינג תרגם לסינית].</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1606,17 +1761,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NNL_ALEPH71264111720005171,NNL_ALEPH21231700300005171</t>
+          <t>NNL_ALEPH21231700300005171</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21231700300005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71264111720005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21231700300005171</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>וינגרד, אלעד מחבר דובר$$Qוינגרד, אלעד,וינגרד, אלעד$$Qוינגרד, אלעד</t>
+          <t>וינגרד, אלעד$$Qוינגרד, אלעד</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1626,35 +1781,40 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[28] עמודים : איורים צבעוניים ; 25 ס"מ.,1 מקור מקוון.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>20090101,20180101</t>
+          <t>[28] עמודים : איורים צבעוניים ; 25 ס"מ.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,[תל אביב] : אגם</t>
+          <t>20090101</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>heb,heb;chi</t>
+          <t>[תל אביב] : אגם</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>990026717620205171,990048970770205171</t>
+          <t>heb;chi</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>990026717620205171</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -1663,81 +1823,66 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>חולד והגוזל</t>
+          <t>חולד והגוזל / ניומן מרג'ורי</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>הדברים הקטנים (כתב יד).</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>NNL_MUSIC_AL21486975920005171</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL21486975920005171</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Happiness -- Songs and music</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>הרצליה : החברה לחקר האדם והסובב</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>990047939170205171</t>
+          <t>כך אני רואה את הדברים / ראו סיריש</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>יוסי, ילד שלי מצלח (עבוד - כתב יד)</t>
+          <t>שמש במרום זורחת / ע. הלל ; לקטה וערכה: יעל גובר ; איורים: עינת צרפתי.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>גובר, יעל  (מלקט עורך)  $$Qגובר, יעל</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL21486889220005171</t>
+          <t>NNL_ALEPH21222834990005171</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL21486889220005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21222834990005171</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ארגוב, סשה, 1914-1995 מלחין$$Qארגוב, סשה, 1914-1995,הלל, ע., 1926-1990 מחבר$$Qהלל, ע., 1926-1990</t>
+          <t>הלל, ע., 1926-1990 מחבר$$Qהלל, ע., 1926-1990</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Choruses (Equal voices) -- Scores; Mothers and sons -- Songs and music</t>
+          <t>Children's songs, Hebrew</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304939350005171</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1 גליון תווים (2 עמודים לא ממוספרים) ; 34 ס"מ.; כתוב בעיפרון.</t>
+          <t>71 עמודים, 1 עמוד לא ממוספר : איורים צבעוניים ; 27 ס"מ.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20010101</t>
+          <t>תשע"ה 2015</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>אור יהודה : דביר</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1747,17 +1892,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>990036183130205171</t>
+          <t>990038526770205171</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>score_manuscript</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21222834990005171</t>
         </is>
       </c>
     </row>
@@ -1794,35 +1939,40 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>[27] עמודים : איורים צבעוניים ; 29 ס"מ.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>20090101</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>אור יהודה : כנרת, זמורה-ביתן, דביר</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>990026397510205171</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -1861,35 +2011,40 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>[16] דפים : איורים צבעוניים ; 27 ס"מ.</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>19970101</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[חולון] : כנרת</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>990017818040205171</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -1970,27 +2125,52 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>שנים עשר ירחים.</t>
+          <t>שנים עשר ירחים / נעמי שמר ; איורים: עינת צרפתי ; עורכת הספר: תמי הראל.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>צרפתי, עינת  (מאייר)  $$Qצרפתי, עינת</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL21486943880005171</t>
+          <t>NNL_ALEPH21192872520005171</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL21486943880005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21192872520005171</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>שמר, נעמי, 1930-2004 מחבר$$Qשמר, נעמי, 1930-2004</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Television programs; Months -- Songs and music; Calendar -- Songs and music; Children's songs</t>
+          <t>Months -- Songs and music; Calendar -- Songs and music; Children's songs</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE173154296</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302785950005171</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>26 עמודים לא ממוספרים : איורים צבעוניים ; 24X17 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>תשע"ד 2014</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת, זמורה ביתן, דביר מוציאים לאור</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2000,17 +2180,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>990036188300205171</t>
+          <t>990036926300205171</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>score_manuscript</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21192872520005171</t>
         </is>
       </c>
     </row>
@@ -2138,35 +2318,40 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>[14] עמודים : איורים צבעוניים ; 24 ס"מ.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>19950101</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>[קרית גת] : דני ספרים</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>990017213620205171</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -2175,22 +2360,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>עלש - מכשף חדש בשכונה / אשכר ארבליך בריפמן ; מספרת תמר עמית יוסף.,עלש מכשף חדש בשכונה / אשכר ארבליך בריפמן ; איורים: נטליה גידה ; עורכת הספר: עפרה גלברט-אבני.</t>
+          <t>עלש מכשף חדש בשכונה / אשכר ארבליך בריפמן ; איורים: נטליה גידה ; עורכת הספר: עפרה גלברט-אבני.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>גידה, נטליה  (מאייר)  $$Qגידה, נטליה,עמית יוסף, תמר  (דובר)  $$Qעמית יוסף, תמר</t>
+          <t>גידה, נטליה  (מאייר)  $$Qגידה, נטליה</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21185817830005171,NNL_ALEPH11361345230005171</t>
+          <t>NNL_ALEPH21185817830005171</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21185817830005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361345230005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21185817830005171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2205,22 +2390,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242676,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302999250005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302999250005171</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>74 עמודים, 5 עמודים לא ממוספרים : איורים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>74 עמודים, 5 עמודים לא ממוספרים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20150101</t>
+          <t>תשע"ה 2014</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,אור יהודה : כנרת בית הוצאה לאור</t>
+          <t>אור יהודה : כנרת בית הוצאה לאור</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2230,17 +2415,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>990039034150205171,990037696310205171</t>
+          <t>990037696310205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21185817830005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21185817830005171</t>
         </is>
       </c>
     </row>
@@ -2277,30 +2462,40 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>132 עמודים : איורים ; 24 ס"מ.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>תשס"ח 2008</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>תל אביב : אחוזת בית</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>990025916800205171</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -2349,25 +2544,30 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>תשע"ד 2014</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>אור יהודה : כנרת בית הוצאה לאור</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>990036926320205171</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21192872060005171</t>
         </is>
@@ -2376,96 +2576,101 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>הנסיכה פוזי והתהלוכה של כיתה א'</t>
+          <t>הנסיכה פוזי והתהלוכה של כתה א' / סטפני גרין ; איורים: סטפני רות סיסון ; מאנגלית: רונית רוקאס ; עורכת אחראית: רונית רוקאס.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>סיסון, סטפני רות  (מאייר)  $$Qסיסון, סטפני רות</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21208005970005171</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21208005970005171</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>גרין, סטפני מחבר$$Qגרין, סטפני</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Fear -- Juvenile fiction; Schools -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302979000005171</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>83 עמודים, 1 עמוד לא ממוספר : איורים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20140101</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר ; כנפיים</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>990037247650205171</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21208005970005171</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>זרע הביפולו ועוד ספורים אבודים / דוקטור סוס ; עם אחרית דבר מאת צ'רלס ד' כהן ; עברית - לאה נאור ; [עורכת אחראית - רחלה זנדבנק].</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>נאור, לאה, 1935-  $$Qנאור, לאה, 1935-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NNL_ALEPH21170438420005171</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21170438420005171</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>סוס, דוקטור, 1904-1991$$Qסוס, דוקטור, 1904-1991</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Children's stories, American; Children's stories -- Translations into Hebrew; Stories in rhyme</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>69 עמודים : איורים צבעוניים ; 29 ס"מ.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>20120101</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>ירושלים : כתר</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>990034578750205171</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>The National Library of Israel</t>
+          <t>הלורקס או זרע הביפולו / דוקטור סוס</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ידי הזהב של קלואי / מאת קלי דיפוצ'יו ; איורים: הת'ר רוס ; מאנגלית: רונית רוקאס ; עריכה לשונית: ניצה פלד.,ידי הזהב של קלואי / קלי דיפוצ'יו ; מספרת תמר חנה שטיירמן.</t>
+          <t>ידי הזהב של קלואי / מאת קלי דיפוצ'יו ; איורים: הת'ר רוס ; מאנגלית: רונית רוקאס ; עריכה לשונית: ניצה פלד.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>חנה שטיירמן, תמר  (דובר)  $$Qחנה שטיירמן, תמר,רוס, הת'ר  (מאייר)  $$Qרוס, הת'ר</t>
+          <t>רוס, הת'ר  (מאייר)  $$Qרוס, הת'ר</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11361326300005171,NNL_ALEPH21233467800005171</t>
+          <t>NNL_ALEPH21233467800005171</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21233467800005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361326300005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21233467800005171</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2480,12 +2685,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243396,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302894590005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302894590005171</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,24 עמודים לא ממוספרים : איורים צבעוניים ; 29 ס"מ.</t>
+          <t>24 עמודים לא ממוספרים : איורים צבעוניים ; 29 ס"מ.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2495,7 +2700,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד וטל מאי</t>
+          <t>תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד וטל מאי</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2505,39 +2710,69 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>990038018220205171,990039034990205171</t>
+          <t>990038018220205171</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21233467800005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21233467800005171</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ארנב הקטיפה</t>
+          <t>ארנב הקטיפה, או, איך צעצועים נעשים אמתיים / מאת מרג'רי ויליאמס ; איורים: דון דיילי ; מאנגלית: מאירה פירון.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>דיילי, דון  (מאייר)  $$Qדיילי, דון,אטלס, יהודה, 1937-  (מתרגם)  $$Qאטלס, יהודה, 1937-</t>
+          <t>דיילי, דון  (מאייר)  $$Qדיילי, דון</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21171095930005171</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171095930005171</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ויליאמס, מרג'רי, 1881-1944 מחבר$$Qויליאמס, מרג'רי, 1881-1944,ווילמס, מרג'רי מחבר$$Qווילמס, מרג'רי</t>
+          <t>ויליאמס, מרג'רי, 1881-1944 מחבר$$Qויליאמס, מרג'רי, 1881-1944</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Children's stories, English -- Translations into Hebrew; Rabbits -- Juvenile fiction; Magic -- Juvenile fiction,Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Toys -- Juvenile fiction; Rabbits -- Juvenile fiction</t>
+          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Toys -- Juvenile fiction; Rabbits -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303073940005171</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>54 עמודים, 2 עמודים לא ממוספרים : איורים צבעוניים ; 24 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20140101</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד ; טל-מאי</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2545,21 +2780,41 @@
           <t>heb</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>990037489820205171</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171095930005171</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>מולו וצגאי</t>
+          <t>מולו וצגאי / תמר ורטה-זהבי ; אירה: סילביה כביב ; עריכה: רונית רוזנטל.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>בן עמי, יובל, 1976-  (דובר)  $$Qבן עמי, יובל, 1976-,כביב, סילביה, 1964-  (מאייר)  $$Qכביב, סילביה, 1964-</t>
+          <t>כביב, סילביה, 1964-  (מאייר)  $$Qכביב, סילביה, 1964-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21192888680005171</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21192888680005171</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2569,12 +2824,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century; Refugees -- Africa -- Juvenile fiction; Refugees, African -- Israel -- Juvenile fiction; Twins -- Juvenile fiction,Children's stories, Hebrew -- 21st century; Refugee children -- Juvenile fiction; Noncitizens -- Juvenile fiction; Illegal immigration -- Juvenile fiction; Eritrea -- Juvenile fiction</t>
+          <t>Children's stories, Hebrew -- 21st century; Refugees -- Africa -- Juvenile fiction; Refugees, African -- Israel -- Juvenile fiction; Twins -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302751000005171</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>31 עמודים : איורים צבעוניים, פורטרטים צבעוניים ; 26 ס"מ.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20150101</t>
+          <t>תשע"ד 2014</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת, זמורה-ביתן, דביר - מוציאים לאור</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2582,36 +2852,46 @@
           <t>heb</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>990036926470205171</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21192888680005171</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>דיאן ואני / שירלי יובל יאיר וטל בן שחר ; מספרת שירלי יובל יאיר.,דיאן ואני / שירלי יובל-יאיר ד"ר טל בן-שחר ; איורים: איה גורדון-נוי ; עורכת הספר: תמי הראל.</t>
+          <t>דיאן ואני / שירלי יובל-יאיר ד"ר טל בן-שחר ; איורים: איה גורדון-נוי ; עורכת הספר: תמי הראל.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>בן שחר, טל, 1970-  (מחבר)  $$Qבן שחר, טל, 1970-,בן שחר, טל  (מחבר)  $$Qבן שחר, טל</t>
+          <t>בן שחר, טל, 1970-  (מחבר)  $$Qבן שחר, טל, 1970-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11361321360005171,NNL_ALEPH21248906760005171</t>
+          <t>NNL_ALEPH21248906760005171</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21248906760005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361321360005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21248906760005171</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>יובל-יאיר, שירלי מחבר$$Qיובל-יאיר, שירלי,יובל-יאיר, שירלי מחבר דובר$$Qיובל-יאיר, שירלי</t>
+          <t>יובל-יאיר, שירלי מחבר$$Qיובל-יאיר, שירלי</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2621,22 +2901,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243594,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302914980005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302914980005171</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20 עמודים : איורים צבעוניים ; 26 ס"מ.,1 מקור מקוון.</t>
+          <t>20 עמודים : איורים צבעוניים ; 26 ס"מ.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20150101</t>
+          <t>תשע"ה 2014</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,אור יהודה : כנרת בית הוצאה לאור</t>
+          <t>אור יהודה : כנרת בית הוצאה לאור</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2646,49 +2926,69 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>990037599470205171,990039035230205171</t>
+          <t>990037599470205171</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21248906760005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21248906760005171</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>המסע אל האי אולי</t>
+          <t>המסע אל האי אולי / מרים ילן-שטקליס ; אירה: בתיה קולטון ; עורכת המהדורה החדשה: יעל גובר.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>קולטון, בתיה, 1967-  (מאייר)  $$Qקולטון, בתיה, 1967-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21171195670005171</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171195670005171</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ילן-שטקליס, מרים, 1900-1984 מחבר$$Qילן-שטקליס, מרים, 1900-1984</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Art -- Israel; Children -- Israel; Israel -- Civilization</t>
+          <t>Children's stories, Hebrew</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE10514456</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303087600005171</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>כולל איור..</t>
+          <t>70 עמודים, 1 עמוד לא ממוספר : איורים צבעוניים ; 25 ס"מ.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>19970101</t>
+          <t>תשע"ד 2014</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>פרדסיה : התקליט</t>
+          <t>אור יהודה : כנרת, זמורה ביתן, דביר - מוציאים לאור</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2696,21 +2996,26 @@
           <t>heb</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>990037495010205171</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171195670005171</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>מה עושים עם רעיון? / קובי ימאדה ; איורים: מאה בסום ; תרגום: יהודה אטלס.,מה עושים עם רעיון-ערבית / קובי ימאדה.</t>
+          <t>מה עושים עם רעיון? / קובי ימאדה ; איורים: מאה בסום ; תרגום: יהודה אטלס.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2720,17 +3025,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NNL_ALEPH71295545920005171,NNL_ALEPH21221852870005171</t>
+          <t>NNL_ALEPH21221852870005171</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21221852870005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71295545920005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21221852870005171</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ימאדה, קובי$$Qימאדה, קובי,ימאדה, קובי מחבר$$Qימאדה, קובי</t>
+          <t>ימאדה, קובי מחבר$$Qימאדה, קובי</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2750,81 +3055,61 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>תל אביב : צלטנר ספרים של ילדים,צלטנר הוצאה לאור.</t>
+          <t>תשע"ה 2015</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>תל אביב : צלטנר ספרים של ילדים</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>990039351130205171,990038422830205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990038422830205171</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21221852870005171,The National Library of Israel</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21221852870005171</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>אלה –קרי</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ינס, אלי, 1907-2006 מחבר$$Qינס, אלי, 1907-2006</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304528380005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305009310005171</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>19990101</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>book</t>
+          <t>אלה –קרי / ינס אלי</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>הנמר של שלמה המלך / שלומית כהן-אסיף ; איורים: גיל-לי אלון קוריאל ; עריכה: נרי אלומה.,הנמר של שלמה המלך / שלומית כהן-אסיף ; מספר אוסנת וישינסקי.</t>
+          <t>הנמר של שלמה המלך / שלומית כהן-אסיף ; איורים: גיל-לי אלון קוריאל ; עריכה: נרי אלומה.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>אלון-קוריאל, גיל-לי, 1960-  (מאייר)  $$Qאלון-קוריאל, גיל-לי, 1960-,שיר-וישינסקי, אסנת, 1961-  (דובר)  $$Qשיר-וישינסקי, אסנת, 1961-</t>
+          <t>אלון-קוריאל, גיל-לי, 1960-  (מאייר)  $$Qאלון-קוריאל, גיל-לי, 1960-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11361320400005171,NNL_ALEPH21171192730005171</t>
+          <t>NNL_ALEPH21171192730005171</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361320400005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171192730005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171192730005171</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2839,22 +3124,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303105750005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243631</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303105750005171</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21 עמודים, 3 עמודים לא ממוספרים : איורים צבעוניים ; 31 ס"מ.,1 מקור מקוון.</t>
+          <t>21 עמודים, 3 עמודים לא ממוספרים : איורים צבעוניים ; 31 ס"מ.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20150101</t>
+          <t>תשע"ד 2014</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,בני-ברק : ספרית פועלים - הקיבוץ המאוחד</t>
+          <t>בני-ברק : ספרית פועלים - הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2864,17 +3149,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>990037495150205171,990039035280205171</t>
+          <t>990037495150205171</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171192730005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171192730005171</t>
         </is>
       </c>
     </row>
@@ -2911,30 +3196,40 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>53 עמודים בלתי ממוספרים : איורים צבעוניים ; 25 ס"מ.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>תשע"ד 2014</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>תל אביב : עם עובד</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>heb;swe</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>990036781750205171</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -2943,7 +3238,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>סיפורו של פרדיננד</t>
+          <t>סיפורו של פרדיננד / מאת מונרו ליף ; רשומים מאת רוברט לוסון ; תרגמה מספרדית: תתי כדורי.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2951,6 +3246,16 @@
           <t>לוסון, רוברט, 1892-1957  (מאייר)  $$Qלוסון, רוברט, 1892-1957</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21248621070005171</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21248621070005171</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>ליף, מונרו, 1905-1976 מחבר$$Qליף, מונרו, 1905-1976</t>
@@ -2961,66 +3266,96 @@
           <t>Children's stories, American -- 20th century; Children's stories -- Translations into Hebrew; Bulls -- Juvenile fiction; Bullfights -- Juvenile fiction; Courage -- Juvenile fiction; Stories in rhyme</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303047710005171</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>70 עמודים, 2 עמודים לא ממוספרים : איורים ; 21 ס"מ.</t>
+          <t>70 עמודים, 1 עמוד לא ממוספר : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>תשע"ה 2014</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>תל אביב : הוצאת ספרים עם עובד</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>heb</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>archive,book</t>
+          <t>990037862110205171</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21234956390005171</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21248621070005171</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>זרעים של מסטיק [הקלטת וידאו] : המחזמר הקלסי לילדים / מאת לאה נאור ונחום היימן ; מפיקה - מאיה רוטשילד ; במאי-תסריטאי - זיו כנרי ; מעבד ומפיק מוסקלי - צור בן זאב ; עם דפנה דקל.</t>
+          <t>זרעים של מסטיק / מאת לאה נאור ; איורים - ולי מינצי ; עריכה - נרי אלומה.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>מינצי, ולי  $$Qמינצי, ולי</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21295597140005171</t>
+          <t>NNL_ALEPH21187444960005171</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21295597140005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21187444960005171</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>נאור, לאה, 1935-$$Qנאור, לאה, 1935-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Children's poetry, Hebrew</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12441272440005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1 קלטת : צבעוני, קול ; 4/3 אינץ'.</t>
+          <t>28, [3] עמודים : איורים צבעוניים ; 22X30 ס"מ.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19970101</t>
+          <t>תשע"ג 2013</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[חולון] : קלסיקלטת</t>
+          <t>בני ברק : ספרית פועלים : הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3030,44 +3365,69 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>990022289580205171</t>
+          <t>990035657300205171</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>קלידוסקופ</t>
+          <t>קלידוסקופ / חוה ניסימוב ; איורים: כנרת גילדר ; עריכה: יותם שווימר.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ארמני, דפנה BTLZMR  (מבצע)  $$Qארמני, דפנה BTLZMR</t>
+          <t>גילדר, כנרת  (מאייר)  $$Qגילדר, כנרת</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71412238150005171</t>
+          <t>NNL_ALEPH21268323960005171</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71412238150005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268323960005171</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ניסימוב, חוה, 1939- מחבר$$Qניסימוב, חוה, 1939-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>Children's stories, Hebrew -- 21st century; Holocaust, Jewish (1939-1945) -- Poland -- Juvenile fiction; Jewish children in the Holocaust -- Poland -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304965530005171</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1 photograph : b/w ; 35 mm..</t>
+          <t>91 עמודים : איורים ; 19 ס"מ.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>19690101</t>
+          <t>20150101</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד ; הוצאת טל-מאי</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3077,49 +3437,69 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>997009938915705171</t>
+          <t>990038235640205171</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>reccomm</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268323960005171</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>נמאס</t>
+          <t>נמאס / גלעד סופר ; עורכת הספר: יעל גובר.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>גובר, יעל  (עורך)  $$Qגובר, יעל</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11475208940005171</t>
+          <t>NNL_ALEPH21269733890005171</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11475208940005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21269733890005171</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>סופר, גלעד, 1968- מחבר$$Qסופר, גלעד, 1968-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century; Boredom -- Juvenile fiction; Extraterrestrial beings -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE9588823</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303024000005171</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>40 עמודים לא ממוספרים : איורים צבעוניים ; 26 ס"מ.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>19700101</t>
+          <t>תשע"ה 2015</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>סנוק.</t>
+          <t>אור יהודה : כנרת בית הוצאה לאור</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3129,17 +3509,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>997002692480405171</t>
+          <t>990038028860205171</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21269733890005171</t>
         </is>
       </c>
     </row>
@@ -3176,35 +3556,40 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>61 עמודים : איורים צבעוניים ; 27 ס"מ.</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>20130101</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[תל אביב] : אגם</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>990035120150205171</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -3213,22 +3598,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>מלך המלח ונסיך הפלפל / כתב: אפרים סידון ; אייר: דני קרמן ; עריכה: דלית לב.,מלך המלח ונסיך הפלפל / אפרים סידון; קריינות: רמי ברוך.</t>
+          <t>מלך המלח ונסיך הפלפל / כתב: אפרים סידון ; אייר: דני קרמן ; עריכה: דלית לב.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ברוך, רמי, 1955-  (דובר)  $$Qברוך, רמי, 1955-,לב, דלית  (עורך)  $$Qלב, דלית</t>
+          <t>לב, דלית  (עורך)  $$Qלב, דלית</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21268338270005171,NNL_ALEPH11375555420005171</t>
+          <t>NNL_ALEPH21268338270005171</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268338270005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375555420005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268338270005171</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3248,17 +3633,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>30 עמודים לא ממוספרים : איורים צבעוניים ; 26 ס"מ.,1 מקור מקוון.</t>
+          <t>30 עמודים לא ממוספרים : איורים צבעוניים ; 26 ס"מ.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20160101</t>
+          <t>תשע"ה 2015</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,תל אביב : הוצאת ספרים עם עובד</t>
+          <t>תל אביב : הוצאת ספרים עם עובד</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3268,39 +3653,39 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>990048844930205171,990038236030205171</t>
+          <t>990038236030205171</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268338270005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268338270005171</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>בול הגדול מכולם / כתב ואייר: יואל פלדמן ; עריכה וניקוד: עפרה גלברט-אבני.,בול הגדול מכולם / יואל פלדמן ; מספר מתן אחיאסף.</t>
+          <t>בול הגדול מכולם / כתב ואייר: יואל פלדמן ; עריכה וניקוד: עפרה גלברט-אבני.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>אחיאסף, מתן  (דובר)  $$Qאחיאסף, מתן,גלברט-אבני, עפרה, 1947-  (עורך)  $$Qגלברט-אבני, עפרה, 1947-</t>
+          <t>גלברט-אבני, עפרה, 1947-  (עורך)  $$Qגלברט-אבני, עפרה, 1947-</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21210581800005171,NNL_ALEPH11349307270005171</t>
+          <t>NNL_ALEPH21210581800005171</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11349307270005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21210581800005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21210581800005171</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3315,22 +3700,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36243162,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303062300005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303062300005171</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>27 עמודים לא ממוספרים : איורים צבעוניים ; 25 ס"מ.,1 מקור מקוון.</t>
+          <t>27 עמודים לא ממוספרים : איורים צבעוניים ; 25 ס"מ.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>20140101,20150101</t>
+          <t>20140101</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,נתניה : הוצאת אחיאסף</t>
+          <t>נתניה : הוצאת אחיאסף</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3340,69 +3725,89 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>990037534760205171,990039034720205171</t>
+          <t>990037534760205171</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21210581800005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21210581800005171</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> מכתב לביאליק</t>
+          <t>מכתב לביאליק / רינת פרימו ; איורים: אבי עופר.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>עופר, אבי, 1975-  (מאייר)  $$Qעופר, אבי, 1975-</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21479232700005171</t>
+          <t>NNL_ALEPH21268325760005171</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21479232700005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268325760005171</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>פרימו, רינת מחבר$$Qפרימו, רינת</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bialik, Hayyim Nahman, 1873-1934 -- Juvenile fiction; Children's stories, Hebrew -- Translations into Spanish; Imagination in children -- Juvenile fiction; Children's songs -- Israel</t>
+          <t>ביאליק, חיים נחמן, 1873-1934. קן צפור; Bialik, Hayyim Nahman, 1873-1934 -- Juvenile literature; Children's stories, Hebrew -- 21st century; Letters -- Juvenile fiction; Animals -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304968660005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302523260005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304968660005171</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>47 pages : illustrations ; 21 cm.</t>
+          <t>47 עמודים, 1 עמוד לא ממוספר : איורים צבעוניים ; 22 ס"מ.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>20150101,20160101</t>
+          <t>20150101</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>תל אביב : משכל הוצאה לאור</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>heb</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>997011371559805171</t>
+          <t>990038235590205171</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>archive,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268325760005171</t>
         </is>
       </c>
     </row>
@@ -3481,47 +3886,72 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>מלכה בירושלים</t>
+          <t>מלכה בירושלים / תמי שם-טוב ורחלה זנדבנק ; איורים: אבי עופר.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sandbank, Rachella  (author)  $$QSandbank, Rachella</t>
+          <t>זנדבנק, רחלה  (מחבר)  $$Qזנדבנק, רחלה</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21280131470005171</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21280131470005171</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tami Shem-Tov 1969- author$$QShem-Tov, Tami, 1969-</t>
+          <t>שם טוב, תמי, 1969- מחבר$$Qשם טוב, תמי, 1969-</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Schatz, Boris, 1867-1932 -- Juvenile fiction; Betsalʼel (Academy) -- Juvenile fiction; Artists -- Israel -- Juvenile fiction; Purim -- Juvenile fiction; Children's stories, Hebrew -- 21st century; Picture books for children; Jerusalem (Israel) -- Juvenile fiction</t>
+          <t>Children's stories, Hebrew -- 21st century; Costume -- Juvenile fiction; Purim -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302946000005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302546470005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302546470005171</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>33 עמודים לא ממוספרים : איורים צבעוניים ; 27 ס"מ.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>20140101,20160101</t>
+          <t>[2015]</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>בן שמן : כתר</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>spa</t>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>990040760880205171</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21280131470005171</t>
         </is>
       </c>
     </row>
@@ -3649,35 +4079,40 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>122 עמודים : איורים צבעוניים ; 23 ס"מ.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>20120101</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>הוד-השרון : עגור</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>990034517070205171</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -3686,49 +4121,94 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>הילדה שאני אוהב</t>
+          <t>הילדה שאני אוהב : אסף שני מתוך ספרי והילד הזה הוא אני / יהודה אטלס ; איורים - דני קרמן.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>קרמן, דני, 1940-  $$Qקרמן, דני, 1940-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21237981690005171</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21237981690005171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>אלטר, נפתלי, 1947- מלחין$$Qאלטר, נפתלי, 1947-</t>
+          <t>אטלס, יהודה, 1937-$$Qאטלס, יהודה, 1937-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew; Children's literature, Hebrew; Children's literature, Israeli,Children's literature, Hebrew; Children's literature, Israeli</t>
+          <t>Children's stories, Hebrew; Children's literature, Hebrew; Children's literature, Israeli</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>19950101</t>
+          <t>101 עמודים : איורים (חלקם צבעוניים) ; 28 ס"מ.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>תל אביב : פונוקול</t>
+          <t>20140101</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>ירושלים : כתר ספרים</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>heb</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>dafshir</t>
+          <t>990036687950205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>עוצמה מעוץ</t>
+          <t>עוצמה מעוץ / מאת ל. פרנק באום ... ; איר: ג'ון ר. ניל ; תרגמה: גילי בר-הלל ; עריכה: רוני בק.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ניל, ג'ון ר.  (מאייר)  $$Qניל, ג'ון ר.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21170957340005171</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21170957340005171</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3743,12 +4223,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302759870005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304585420005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302759870005171</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>208 עמודים : איורים צבעוניים ; 24 ס"מ.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20140101,20170101</t>
+          <t>[2014]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[ישראל] : עוץ</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -3756,9 +4246,19 @@
           <t>heb</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>990036919720205171</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21170957340005171</t>
         </is>
       </c>
     </row>
@@ -3805,25 +4305,30 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>תשע"ה 2015</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>ישראל : בן-גל הפקות</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>990038534790205171</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21222981640005171</t>
         </is>
@@ -3832,7 +4337,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>לורד פונטלרוי הקטן</t>
+          <t>לורד פונטלרוי הקטן / פרנסס הודג'סון ברנט ; תרגמה: רנה ורבין ; איורי פנים: מירה פרידמן.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ורבין, רנה, 1973-  (מתרגם)  $$Qורבין, רנה, 1973-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21196229750005171</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21196229750005171</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ברנט, פרנסיס הודג'סון, 1849-1924 מחבר$$Qברנט, פרנסיס הודג'סון, 1849-1924</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- 19th century; Children's stories -- Translations into Hebrew; Grandfathers -- Juvenile fiction; England -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3840,9 +4370,19 @@
           <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304915330005171</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>233 עמודים, 1 דף לא ממוספר : איורים ; 23 ס"מ.</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20150101,19740101</t>
+          <t>20150101</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>מושב בן-שמן : מודן הוצאה לאור</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -3850,31 +4390,41 @@
           <t>heb</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>990038348860205171</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21196229750005171</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>המרוץ אחר המדליה ההודית / יוסי גודארד ; איורים: דני קרמן ; עריכה: יונה טפר.,המרוץ אחר המדליה ההודית / יוסי גודארד; קריינות: עמית גור.</t>
+          <t>המרוץ אחר המדליה ההודית / יוסי גודארד ; איורים: דני קרמן ; עריכה: יונה טפר.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>קרמן, דני, 1940-  (מאייר)  $$Qקרמן, דני, 1940-,גור, עמית (שחקן)  (דובר)  $$Qגור, עמית (שחקן)</t>
+          <t>קרמן, דני, 1940-  (מאייר)  $$Qקרמן, דני, 1940-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21187252570005171,NNL_ALEPH11375563560005171</t>
+          <t>NNL_ALEPH21187252570005171</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375563560005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21187252570005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21187252570005171</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3894,17 +4444,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,79 עמודים : איורים ; 21 ס"מ.</t>
+          <t>79 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20150101,20160101</t>
+          <t>20150101</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,[בני ברק] : הוצאת הקבוץ המאוחד</t>
+          <t>[בני ברק] : הוצאת הקבוץ המאוחד</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -3914,24 +4464,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>990048845020205171,990038393960205171</t>
+          <t>990038393960205171</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21187252570005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21187252570005171</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>למרבה המזל החלב / ניל גיימן ; איורים: סקוטי יאנג ; מאנגלית: דידי חנוך ; עריכת התרגום: אסנת יקירה.,למרבה המזל, החלב / ניל גיימן ; איורים: סקוטי יאנג ; מאנגלית: דידי חנוך ; עריכת התרגום: אסנת יקירה.</t>
+          <t>למרבה המזל החלב / ניל גיימן ; איורים: סקוטי יאנג ; מאנגלית: דידי חנוך ; עריכת התרגום: אסנת יקירה.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3941,12 +4491,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21444320380005171,NNL_ALEPH21274304140005171</t>
+          <t>NNL_ALEPH21274304140005171</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21444320380005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21274304140005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21274304140005171</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3956,27 +4506,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Children's stories, English -- 21st century; Children's stories -- Translations into Hebrew; Humorous stories,Milk -- Juvenile fiction; Human-alien encounters -- Juvenile fiction; Pirates -- Juvenile fiction; Time travel -- Juvenile fiction; Children's stories, American -- Translations into Hebrew</t>
+          <t>Children's stories, English -- 21st century; Children's stories -- Translations into Hebrew; Humorous stories</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302917350005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12496993370005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302917350005171</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120 עמודים, 3 עמודים לא ממוספרים : איורים ; 21 ס"מ.,120, 6 עמודים לא ממוספרים : איורים ; 21 ס"מ</t>
+          <t>120 עמודים, 3 עמודים לא ממוספרים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20140101,20220101</t>
+          <t>20140101</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>הוד השרון : הוצאת הכורסא,כליל : הכורסא ; מושב בן-שמן : מודן הוצאה לאור בע"מ</t>
+          <t>הוד השרון : הוצאת הכורסא</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -3986,7 +4536,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>997010693077205171,990037848370205171</t>
+          <t>990037848370205171</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -3996,49 +4546,59 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21444320380005171,$$VThe National Library of Israel$$ONNL_ALEPH21274304140005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21274304140005171</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>תערוכת ציורים - אנה פרנק.</t>
+          <t>אנה פרנק / סוזנה דייוידסון ; [מאנגלית - חגי ברקת].</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>אד ואן אויין מעצב</t>
+          <t>שלוס, אוה, 1929-  $$Qשלוס, אוה, 1929-</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11427719870005171</t>
+          <t>NNL_ALEPH21258223980005171</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11427719870005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21258223980005171</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>דיוידסון, סוזנה$$Qדיוידסון, סוזנה</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Theater -- Israel; Leisure -- Israel; Recreation -- Israel; Clothing and dress -- Israel; Holocaust, Jewish (1939-1945); Israel -- Civilization</t>
+          <t>פרנק, אנה, 1929-1945; Holocaust, Jewish (1939-1945) -- Netherlands -- Juvenile literature; Jewish children in the Holocaust</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>כולל תצלום..</t>
+          <t>64 עמודים : איורים, פורטרטים ; 24 ס"מ.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>19650101</t>
+          <t>20070101</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>יפו : צלטנר ספרים</t>
+          <t>קרית גת : דני ספרים</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -4048,12 +4608,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>997002795970405171</t>
+          <t>990026275110205171</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4065,12 +4625,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>כלב קו</t>
+          <t>כלב קו : ספור ממש טוב עם ציורים די גרועים / טום ווטסון ; מאנגלית: עטרה אופק ; עורכת אחראית: רחלה זנדבנק.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>זייברט-טל, דנה  (מתרגם)  $$Qזייברט-טל, דנה,אופק, עטרה, 1953-  (מתרגם)  $$Qאופק, עטרה, 1953-</t>
+          <t>אופק, עטרה, 1953-  (מתרגם)  $$Qאופק, עטרה, 1953-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21221843050005171</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21221843050005171</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4078,78 +4648,78 @@
           <t>ווטסון, טום, 1965- מחבר$$Qווטסון, טום, 1965-</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Dogs -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305106070005171</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>189 עמודים, 1 דף לא ממוספר : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20150101</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר ספרים</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>heb</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>990038422400205171</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21221843050005171</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>גרין.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>NNL_EPHEMERA11429186340005171</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429186340005171</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>כולל תצלום..</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>997001755910405171</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>sheet</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>The National Library of Israel</t>
+          <t>קוראים לי צביקה גרין / ולדר חיים</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>המעודדת הסודית של תיקי / כתבה: יונה טפר ; איורים: אלינה גורבן ; עריכה: נרי אלומה.,המעודדת הסודית של תיקי / יונה טפר ; מספר נתלי פיינשטיין.</t>
+          <t>המעודדת הסודית של תיקי / כתבה: יונה טפר ; איורים: אלינה גורבן ; עריכה: נרי אלומה.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>גורבן, אלינה  (מאייר)  $$Qגורבן, אלינה,פיינשטיין, נתלי  (דובר)  $$Qפיינשטיין, נתלי</t>
+          <t>גורבן, אלינה  (מאייר)  $$Qגורבן, אלינה</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11361331000005171,NNL_ALEPH21200757160005171</t>
+          <t>NNL_ALEPH21200757160005171</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361331000005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21200757160005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21200757160005171</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -4164,22 +4734,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305030230005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242809</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305030230005171</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>212 עמודים, 2 עמודים לא ממוספרים : איורים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>212 עמודים, 2 עמודים לא ממוספרים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20150101</t>
+          <t>תשע"ה 2015</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>בני-ברק : ספרית פועלים,תל אביב : iCast</t>
+          <t>בני-ברק : ספרית פועלים</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -4189,49 +4759,69 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>990039034340205171,990038287250205171</t>
+          <t>990038287250205171</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21200757160005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21200757160005171</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>אחד משלנו - מאת: בני ברבש.</t>
+          <t>אחד משלנו / ימימה אבידר-טשרנוביץ ; ציורים: נחום גוטמן ; עורכת אחראית: יעל גובר.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>אמני דפוס אופסט בע"מ ((בית דפוס))</t>
+          <t>גוטמן, נחום, 1898-1980  (מאייר)  $$Qגוטמן, נחום, 1898-1980</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21171206920005171</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171206920005171</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>אבידר-טשרנוביץ, ימימה, 1909-1998 מחבר$$Qאבידר-טשרנוביץ, ימימה, 1909-1998</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew; Adventure and adventurers -- Fiction -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE19333039</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303127740005171</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>כולל תצלום..</t>
+          <t>189 עמודים, 1 עמוד לא ממוספר : איורים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>19890101</t>
+          <t>תשע"ד 2014</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>אפס מוסיקה</t>
+          <t>אור יהודה : כנרת, זמורה ביתן, דביר - מוציאים לאור</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -4239,36 +4829,41 @@
           <t>heb</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>990037495410205171</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171206920005171</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>הדבר הכי גדול בעולם / רונית לוינשטיין-מלץ ; איורים: נעם נדב ; עריכה: עפרה גלברט-אבני.,סודות בירושלים (2) הדבר הכי גדול בעולם / רונית לוינשטיין-מלץ; קריינות: שירן גרוס.</t>
+          <t>הדבר הכי גדול בעולם / רונית לוינשטיין-מלץ ; איורים: נעם נדב ; עריכה: עפרה גלברט-אבני.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>גרוס, שירן  (דובר)  $$Qגרוס, שירן,נדב, נעם, 1957-  (מאייר)  $$Qנדב, נעם, 1957-</t>
+          <t>נדב, נעם, 1957-  (מאייר)  $$Qנדב, נעם, 1957-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21268325200005171,NNL_ALEPH11375598140005171</t>
+          <t>NNL_ALEPH21268325200005171</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375598140005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268325200005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268325200005171</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -4288,17 +4883,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>192 עמודים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>192 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20150101,20160101</t>
+          <t>20150101</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
+          <t>תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -4308,24 +4903,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>990048843560205171,990038235610205171</t>
+          <t>990038235610205171</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268325200005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268325200005171</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>מדיקן</t>
+          <t>מדיקן / אסטריד לינדגרן ; איורים: ולי מינצי ; משודית: דנה כספי.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>מינצי, ולי  (מאייר)  $$Qמינצי, ולי</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4338,11 +4938,36 @@
           <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21175687090005171</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>לינדגרן, אסטריד, 1907-2002 מחבר$$Qלינדגרן, אסטריד, 1907-2002</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Children's stories, Swedish -- 20th century; Children's stories -- Translations into Hebrew</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305034860005171</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>221 עמודים : איורים צבעוניים ; 26 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>תשע"ה 2015</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת, זמורה-ביתן, דביר מוציאים לאור</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>heb</t>
@@ -4356,6 +4981,11 @@
       <c r="M15" t="inlineStr">
         <is>
           <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21175687090005171</t>
         </is>
       </c>
     </row>
@@ -4392,35 +5022,40 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>342 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>20130101</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>תל-אביב : משכל</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>990036641970205171</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -4429,7 +5064,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>בלב הגבעה המסתורית / אורה מורג ; מספרת אורה מורג.,בלב הגבעה המסתורית / אורה מורג ; עריכה: עפרה גלברט-אבני ; עורך היסטורי: אריה רוקח ; איורים: גל אור.</t>
+          <t>בלב הגבעה המסתורית / אורה מורג ; עריכה: עפרה גלברט-אבני ; עורך היסטורי: אריה רוקח ; איורים: גל אור.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4439,17 +5074,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11361336580005171,NNL_ALEPH21268328870005171</t>
+          <t>NNL_ALEPH21268328870005171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268328870005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361336580005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268328870005171</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>מורג, אורה, 1943- מחבר$$Qמורג, אורה, 1943-,מורג, אורה, 1943- מחבר דובר$$Qמורג, אורה, 1943-</t>
+          <t>מורג, אורה, 1943- מחבר$$Qמורג, אורה, 1943-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4459,12 +5094,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242609,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304967470005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304967470005171</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>312 עמודים : איורים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>312 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4474,7 +5109,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>תל אביב : משכל הוצאה לאור,תל אביב : iCast</t>
+          <t>תל אביב : משכל הוצאה לאור</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4484,39 +5119,39 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>990039034050205171,990038235490205171</t>
+          <t>990038235490205171</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268328870005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268328870005171</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>לאסי חוזרת הביתה / אריק נייט ; תרגם: יואב כ"ץ ; איורי פנים: בתיה קולטון.,לאסי חוזרת הביתה / אריק נייט ; תרגום: גילה בר-גיל ; עריכה לשונית: תמר פרי ; איור: ג'קי ירחי.</t>
+          <t>לאסי חוזרת הביתה / אריק נייט ; תרגם: יואב כ"ץ ; איורי פנים: בתיה קולטון.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>כץ, יואב, 1965-  (מתרגם)  $$Qכץ, יואב, 1965-,בר גיל, גילה  (מתרגם)  $$Qבר גיל, גילה</t>
+          <t>כץ, יואב, 1965-  (מתרגם)  $$Qכץ, יואב, 1965-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21534444080005171,NNL_ALEPH21175717690005171</t>
+          <t>NNL_ALEPH21175717690005171</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21175717690005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21534444080005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21175717690005171</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4526,17 +5161,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Children's stories, American -- 20th century; Children's stories -- Translations into Hebrew; Dogs -- Juvenile fiction,Lassie (Fictitious character) -- Juvenile fiction; Dogs -- Juvenile fiction; Human-animal relationships -- Juvenile fiction; Children's stories, English -- Translations into Hebrew</t>
+          <t>Children's stories, American -- 20th century; Children's stories -- Translations into Hebrew; Dogs -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12537332210005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305012520005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305012520005171</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>207 עמודים : איורים ; 25 ס"מ,251 עמודים, 2 עמודים לא ממוספרים : איורים ; 22 ס"מ.</t>
+          <t>251 עמודים, 2 עמודים לא ממוספרים : איורים ; 22 ס"מ.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4546,7 +5181,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>כפר מונש : עופרים הוצאה לאור,בן שמן : אוקיינוס ; מודן</t>
+          <t>בן שמן : אוקיינוס ; מודן</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4556,7 +5191,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>990038122480205171,997012802034205171</t>
+          <t>990038122480205171</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -4566,7 +5201,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21175717690005171,$$VThe National Library of Israel$$ONNL_ALEPH21534444080005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21175717690005171</t>
         </is>
       </c>
     </row>
@@ -4645,12 +5280,42 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>הבריחה הגדולה.</t>
+          <t>הבריחה הגדולה / סוזן סלפורס ; איורים: דן סנטט ; מאנגלית: נעה שביט.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>צפת (ישראל) $$Qצפת (ישראל)</t>
+          <t>שביט, נעה  (מתרגם)  $$Qשביט, נעה</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21185815000005171</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21185815000005171</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>סלפורס, סוזן מחבר$$Qסלפורס, סוזן</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Imaginary histories -- Fiction; Veterinarians -- Fiction; Animals, Mythical -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302977580005171</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>22 עמודים, 2 עמודים לא ממוספרים : איורים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4660,44 +5325,79 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[צפת] : [עיריית צפת]</t>
+          <t>מושב בן-שמן : מודן הוצאה לאור</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>heb</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>990037696530205171</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21185815000005171</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>הניצוץ : בטאון תאורטי מרכסיסטי.</t>
+          <t>המסע בעקבות הניצוץ / כתב: טום סניגוסקי ; אייר: ג'ף סמית.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>סמית, ג'ף, 1960-  (מאייר)  $$Qסמית, ג'ף, 1960-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NNL-Journals21221232210005171</t>
+          <t>NNL_ALEPH21268306780005171</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL-Journals21221232210005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268306780005171</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>סניגוסקי, טום, 1962- מחבר$$Qסניגוסקי, טום, 1962-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Arab-Israeli conflict -- Periodicals; Palestinian Arabs -- Civil rights -- Israel -- Periodicals; Socialism -- Israel -- Periodicals</t>
+          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Heroes -- Juvenile fiction; Fantasy -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304927410005171</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.</t>
+          <t>1 כרך (ספר ראשון, [2], 162 עמודים) : איורים צבעוניים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>19770101</t>
+          <t>20150101</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת, זמורה-ביתן, דביר - מוציאים לאור</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4707,17 +5407,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>990020178010205171</t>
+          <t>990038234840205171</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>journal</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268306780005171</t>
         </is>
       </c>
     </row>
@@ -4744,40 +5444,50 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>Children's stories, French -- 20th century; Children's stories -- Translations into Hebrew; Vacations -- Juvenile fiction</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303085080005171</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>160 עמודים : איורים ; 22 ס"מ.</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>תשע"ד 2014</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>אור יהודה : כנרת בית הוצאה לאור</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>990037050850205171</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21284061980005171</t>
         </is>
@@ -4786,54 +5496,79 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>פוליאנה</t>
+          <t>Pollyanna / adapted from the story by Eleanor H. Porter = אלנור הודג'מן פורטר ; עיבוד, נטלי קרוליק; עורכת, רות זימברג. פוליאנה /.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>זימברג, רות  (עורך)  $$Qזימברג, רות</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21172553330005171</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21172553330005171</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>רביץ, יהודית, 1956- מלחין מבצע$$Qרביץ, יהודית, 1956-</t>
+          <t>Eleanor H. Porter (Eleanor Hodgman), 1868-1920$$QPorter, Eleanor H. 1868-1920</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Children's stories, American -- 19th century; Children's stories -- Translations into Hebrew; Orphans -- Juvenile fiction; Aunts -- Juvenile fiction</t>
+          <t>Readers; English language -- Textbooks for foreign speakers -- Hebrew</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302600530005171</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1 תקליטור שמע (19:48 דקות) : דיגיטלי ; 3/4 4 אינץ'..</t>
+          <t>56 pages : illustrations ; 21 cm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>20020101</t>
+          <t>תשע"ד 2014</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>ישראל : אן אם סי מוסיקה</t>
+          <t>כפר מונש : עופרים</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>eng;heb</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>990036752900205171</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>reccomm</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21172553330005171</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>טימי טעות - אף אחד לא מושלם / סטפן פסטיס ; מאנגלית: ארז אשרוב .,תראו מה עשיתם! / סטפן פסטיס ; מאנגלית: ארז אשרוב.</t>
+          <t>טימי טעות - אף אחד לא מושלם / סטפן פסטיס ; מאנגלית: ארז אשרוב .</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4843,12 +5578,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21233894050005171,NNL_ALEPH21284061360005171</t>
+          <t>NNL_ALEPH21284061360005171</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21233894050005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21284061360005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21284061360005171</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4858,42 +5593,47 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Private investigators -- Juvenile fiction; Bears -- Juvenile fiction; Humorous stories; Detective and mystery stories; Friendship -- Juvenile fiction; Lost and found possessions -- Juvenile fiction,Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Private investigators -- Juvenile fiction; Bears -- Juvenile fiction; Humorous stories; Detective and mystery stories; Friendship -- Juvenile fiction</t>
+          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Private investigators -- Juvenile fiction; Bears -- Juvenile fiction; Humorous stories; Detective and mystery stories; Friendship -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303083970005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304537260005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303083970005171</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9 עמודים לא ממוספרים, 275 עמודים : איורים ; 22 ס"מ.,294 עמודים : איורים ; 21 ס"מ.</t>
+          <t>294 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>אור יהודה : כנרת, זמורה-ביתן - מוציאים לאור,אור יהודה : כנרת, זמורה-ביתן, דביר - מוציאים לאור</t>
+          <t>תשע"ד 2014</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>אור יהודה : כנרת, זמורה-ביתן - מוציאים לאור</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>990038870500205171,990037050910205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990037050910205171</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21233894050005171,$$VThe National Library of Israel$$ONNL_ALEPH21284061360005171</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21284061360005171</t>
         </is>
       </c>
     </row>
@@ -4905,7 +5645,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>אלברט, יעל  (מאייר)  $$Qאלברט, יעל,בנאי, אורי  (דובר)  $$Qבנאי, אורי</t>
+          <t>אלברט, יעל  (מאייר)  $$Qאלברט, יעל</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4920,17 +5660,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>רון-פדר-עמית, גלילה, 1949- מחבר$$Qרון-פדר-עמית, גלילה, 1949-,רון-פדר-עמית, גלילה, 1949-$$Qרון-פדר-עמית, גלילה, 1949-</t>
+          <t>רון-פדר-עמית, גלילה, 1949- מחבר$$Qרון-פדר-עמית, גלילה, 1949-</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Haganah (Organization) -- Fiction; Children's stories, Hebrew -- 21st century; Mandates -- Eretz Israel -- Juvenile fiction; Weapons -- Israel -- Juvenile literature</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE37261249,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302604090005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302604090005171</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>167 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>20140101,19860101</t>
+          <t>20140101</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4950,14 +5700,84 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21237996170005171</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>הרפתקאות ספרית רימונים</t>
+          <t>אל עמוד הימיני / יקהת רוזן ; איורים: הדס חורי ; עריכה: עומר פדור.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>חורי, הדס  (מאייר)  $$Qחורי, הדס</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21175661120005171</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21175661120005171</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>רוזן, יקהת מחבר$$Qרוזן, יקהת</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ישראלי, שאול, 1909-1995; Children's stories, Hebrew -- 21st century; Rabbis -- Juvenile fiction; Libraries -- Juvenile fiction; Adventure stories, Hebrew -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305008460005171</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>145 עמודים : איורים ; 24 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>תשע"ה 2015</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ירושלים : אלומות ; קרית גת : דני ספרים הוצאה לאור</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>990038121590205171</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21175661120005171</t>
         </is>
       </c>
     </row>
@@ -5055,22 +5875,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>סלפי אחד יותר מדי / דנה אבירם ; מספר נתלי פיינשטיין.,סלפי אחד יותר מדי / דנה אבירם ; עריכה: הלנה מגר-טלמור.</t>
+          <t>סלפי אחד יותר מדי / דנה אבירם ; עריכה: הלנה מגר-טלמור.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>מגר טלמור, הלנה  (עורך)  $$Qמגר טלמור, הלנה,פיינשטיין, נתלי  (דובר)  $$Qפיינשטיין, נתלי</t>
+          <t>מגר טלמור, הלנה  (עורך)  $$Qמגר טלמור, הלנה</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11361344090005171,NNL_ALEPH21268330540005171</t>
+          <t>NNL_ALEPH21268330540005171</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361344090005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268330540005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268330540005171</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -5085,22 +5905,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305007230005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242716</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305007230005171</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>276 עמודים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>276 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20150101</t>
+          <t>תשע"ה 2015</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>גבעתיים : הוצאת רימונים ; תל אביב : משכל הוצאה לאור,תל אביב : iCast</t>
+          <t>גבעתיים : הוצאת רימונים ; תל אביב : משכל הוצאה לאור</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -5110,111 +5930,76 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>990038236370205171,990039034210205171</t>
+          <t>990038236370205171</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268330540005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268330540005171</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>שבועת האדרה / דורית אורגד; קריינות: אריק אדלר.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>אדלר, אריק  (דובר)  $$Qאדלר, אריק</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NNL_ALEPH11375609540005171</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375609540005171</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>אורגד, דורית, 1936- מחבר$$Qאורגד, דורית, 1936-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1 מקור מקוון.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20160101</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>תל אביב : iCast</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>990048844570205171</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>audio</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>The National Library of Israel</t>
+          <t>שבועת האדרה / אורגד דורית</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>הסיפור שאינו נגמר... ממועצת התנועה לסמינר מעורבות חברתית.</t>
+          <t>הסיפור שאינו נגמר / מיכאל אנדה ; מגרמנית: חנה לבנת.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>גולן, נחום  (לכבודו)  $$Qגולן, נחום</t>
+          <t>לבנת, חנה, 1951-  (מתרגם)  $$Qלבנת, חנה, 1951-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11428532170005171</t>
+          <t>NNL_ALEPH21171941500005171</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11428532170005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171941500005171</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>אנדה, מיכאל, 1929-1995 מחבר$$Qאנדה, מיכאל, 1929-1995</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Teenagers -- Israel; Youth -- Israel; Secularization (Theology) -- Israel; Voluntarism -- Israel</t>
+          <t>Voyages, Imaginary -- Juvenile fiction; German fiction -- Translations into Hebrew; Good and evil -- Juvenile fiction; Courage -- Juvenile fiction; Fantasy fiction; Imaginary places -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12529100990005171</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>כולל תצלום..</t>
+          <t>479 עמודים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>תשע"ה 2015</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[תל אביב] : הוצאת לדורי</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -5224,24 +6009,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>997001601830405171</t>
+          <t>990038067460205171</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171941500005171</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>יוצאת מהמשחק / פנינה אריאל ; עריכה: יונה טפר.,יוצאת מהמשחק / פנינה אריאל ; מספרת פנינה אריאל.</t>
+          <t>יוצאת מהמשחק / פנינה אריאל ; עריכה: יונה טפר.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5251,17 +6036,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21284064690005171,NNL_ALEPH11361307110005171</t>
+          <t>NNL_ALEPH21284064690005171</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361307110005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21284064690005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21284064690005171</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>אריאל, פנינה מחבר דובר$$Qאריאל, פנינה,אריאל, פנינה מחבר$$Qאריאל, פנינה</t>
+          <t>אריאל, פנינה מחבר$$Qאריאל, פנינה</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -5271,22 +6056,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242940,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303094280005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303094280005171</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>222 עמודים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>222 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>20150101</t>
+          <t>תשע"ד 2014</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,Tel Aviv : הוצאת הקיבוץ המאוחד</t>
+          <t>Tel Aviv : הוצאת הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -5296,54 +6081,69 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>990037050510205171,990039034450205171</t>
+          <t>990037050510205171</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21284064690005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21284064690005171</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yu-gi-oh! : העונה הראשונה: דו קרב עם הרוח ; לוותר על הרוח.</t>
+          <t>דו קרב / דויד גרוסמן ; איורים: מישל קישקה ; עריכה: יונה טפר.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>סטודיו קו מעצב</t>
+          <t>קישקה, מישל, 1954-  (מאייר)  $$Qקישקה, מישל, 1954-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21515113010005171</t>
+          <t>NNL_ALEPH21201694410005171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21515113010005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21201694410005171</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>גרוסמן, דויד, 1954- מחבר$$Qגרוסמן, דויד, 1954-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Manga (Comic books)</t>
+          <t>Children's stories, Hebrew; Children and older people -- Juvenile fiction; Dueling -- Juvenile fiction; Thieves -- Juvenile fiction; Friendship -- Juvenile fiction; Jerusalem (Israel) -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305071870005171</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>91 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19760101</t>
+          <t>20150101</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[ישראל] : P.M.I ; DTR</t>
+          <t>תל אביב : הוצאת הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -5353,17 +6153,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>997012450169605171</t>
+          <t>990038669110205171</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21201694410005171</t>
         </is>
       </c>
     </row>
@@ -5410,25 +6210,30 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>[2014]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>תל אביב : משכל</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>990037599890205171</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21248914970005171</t>
         </is>
@@ -5477,25 +6282,30 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>תשע"ד 2014</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>רמות השבים : אריה ניר</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>990036686600205171</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21237977650005171</t>
         </is>
@@ -5576,7 +6386,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>אגם הצללים / רוני גלבפיש; קריינות: רוני גלבפיש.,אגם הצללים / עורכים: שמעון ריקלין וצפריר בשן.</t>
+          <t>אגם הצללים / עורכים: שמעון ריקלין וצפריר בשן.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5586,17 +6396,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21218561910005171,NNL_ALEPH71270217720005171</t>
+          <t>NNL_ALEPH21218561910005171</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21218561910005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71270217720005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21218561910005171</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>גלבפיש, רוני, 1969- מחבר דובר$$Qגלבפיש, רוני, 1969-,גלבפיש, רוני, 1969- מחבר$$Qגלבפיש, רוני, 1969-</t>
+          <t>גלבפיש, רוני, 1969- מחבר$$Qגלבפיש, רוני, 1969-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -5611,17 +6421,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,462 עמודים, 1 עמוד לא ממוספר ; 21 ס"מ.</t>
+          <t>462 עמודים, 1 עמוד לא ממוספר ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20150101,20160101</t>
+          <t>20150101</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,ישראל : דג זהב הוצאה לאור</t>
+          <t>ישראל : דג זהב הוצאה לאור</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -5631,44 +6441,69 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>990048847940205171,990037504340205171</t>
+          <t>990037504340205171</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21218561910005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21218561910005171</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>הנסיך הקטן</t>
+          <t>הנסיך הקטן / אנטואן דה סנט-אקזופרי ; מצרפתית: דרור גרין.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>גרין, דרור, 1954-  (מתרגם)  $$Qגרין, דרור, 1954-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NNL_ALEPH51530834550005171</t>
+          <t>NNL_ALEPH21244448930005171</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH51530834550005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21244448930005171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>סנט-אכזופרי, אנטואן דה, 1900-1944 מחבר$$Qסנט-אכזופרי, אנטואן דה, 1900-1944</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Children's stories, French -- Translations into Hebrew; Air pilots -- Juvenile fiction; Friendship -- Juvenile fiction; Fantasy -- Juvenile fiction; Sahara -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303071290005171</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1 video (00:02:59).</t>
+          <t>95 עמודים : איורים ; 22 ס"מ.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>19830101</t>
+          <t>20140101</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[צפת] : ספרים, הוצאה לאור</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -5678,14 +6513,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>997012740480505171</t>
+          <t>990037584070205171</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21244448930005171</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>גיבורה למען וונדלה / כתב ואייר: טוני דיטרליצי ; מאנגלית: יעל ענבר ; עריכת התרגום: נעה סמלסון.,החיפוש אחר וונדלה / כתב ואייר: טוני דיטרליצי ; מאנגלית: יעל ענבר.</t>
+          <t>החיפוש אחר וונדלה / כתב ואייר: טוני דיטרליצי ; מאנגלית: יעל ענבר.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5695,12 +6540,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21268312320005171,NNL_ALEPH21238435100005171</t>
+          <t>NNL_ALEPH21268312320005171</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268312320005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21238435100005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268312320005171</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -5710,69 +6555,99 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Fantasy fiction; Human-alien encounters -- Juvenile fiction; Identity (Philosophical concept) -- Juvenile fiction; Adventure and adventurers -- Fiction -- Juvenile fiction; Girls -- Juvenile fiction; Robots -- Juvenile fiction,Children's stories, English -- Translations into Hebrew; Fantasy fiction; Human-alien encounters -- Juvenile fiction; Identity (Philosophical concept) -- Juvenile fiction; Adventure and adventurers -- Fiction -- Juvenile fiction; Girls -- Juvenile fiction; Robots -- Juvenile fiction</t>
+          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Fantasy fiction; Human-alien encounters -- Juvenile fiction; Identity (Philosophical concept) -- Juvenile fiction; Adventure and adventurers -- Fiction -- Juvenile fiction; Girls -- Juvenile fiction; Robots -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303659030005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304978300005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304978300005171</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>487 עמודים : איורים ; 21 ס"מ.,458 עמודים, 6 עמודים לא ממוספרים : איורים צבעוניים ; 21 ס"מ.</t>
+          <t>487 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>תשע"ה 2015</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>תל-אביב : מטר</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>990038235340205171,990043673530205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990038235340205171</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268312320005171,$$VThe National Library of Israel$$ONNL_ALEPH21238435100005171</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268312320005171</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>תן חיוך.</t>
+          <t>חיוך של לילה / כתבה: אפרת פרי ; אירה: תמר שביט.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>אליגון-רוז, תלמה, 1944-  (מחבר)  $$Qאליגון-רוז, תלמה, 1944-</t>
+          <t>שביט, תמר  (מאייר)  $$Qשביט, תמר</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71258124030005171</t>
+          <t>NNL_ALEPH21237988990005171</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71258124030005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21237988990005171</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>פרי, אפרת מחבר$$Qפרי, אפרת</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century; Imagination -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302666880005171</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12 עמודים לא ממוספרים : איורים צבעוניים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>תשע"ד 2014</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>ת"א תל אביב : נענע דיסק</t>
+          <t>תל אביב : אפרת פרי</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -5782,49 +6657,49 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>990036656320205171</t>
+          <t>990036687480205171</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21237988990005171</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>הכחול האבוד / לויס לורי ; מאנגלית: יעל ענבר ; עורכת התרגום: דיטה גוטמן.,הכחול האבוד / לויס לורי ; תרגמה מאנגלית יעל ענבר ; עורכת הספר - גילי בר הלל.</t>
+          <t>הכחול האבוד / לויס לורי ; מאנגלית: יעל ענבר ; עורכת התרגום: דיטה גוטמן.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ענבר, יעל  $$Qענבר, יעל,גוטמן, דיטה  (עורך)  $$Qגוטמן, דיטה</t>
+          <t>גוטמן, דיטה  (עורך)  $$Qגוטמן, דיטה</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21295598540005171,NNL_ALEPH21274308920005171</t>
+          <t>NNL_ALEPH21274308920005171</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21274308920005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21295598540005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21274308920005171</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>לורי, לויס$$Qלורי, לויס,לורי, לויס מחבר$$Qלורי, לויס</t>
+          <t>לורי, לויס מחבר$$Qלורי, לויס</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Artists -- Fiction; Orphans -- Fiction; People with disabilities -- Fiction; Science fiction,Fiction -- Translations into Hebrew; Science fiction; Orphans -- Fiction; People with disabilities -- Fiction</t>
+          <t>Fiction -- Translations into Hebrew; Science fiction; Orphans -- Fiction; People with disabilities -- Fiction</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -5834,12 +6709,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>200 עמודים ; 21 ס"מ.,187 עמודים ; 21 ס"מ.</t>
+          <t>200 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20140101,20020101</t>
+          <t>20140101</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -5854,7 +6729,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>990037848180205171,990022289430205171</t>
+          <t>990037848180205171</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -5864,29 +6739,29 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21274308920005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21274308920005171</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>בודדים בשנחאי / אורית עוזיאל ; עריכה: נרי אלומה.,בודדים בשנחאי / אורית עוזיאל; קריינות: תמר עמית-יוסף.</t>
+          <t>בודדים בשנחאי / אורית עוזיאל ; עריכה: נרי אלומה.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>עמית יוסף, תמר, 1994-  (דובר)  $$Qעמית יוסף, תמר, 1994-,אלומה, נרי, 1963-  (עורך)  $$Qאלומה, נרי, 1963-</t>
+          <t>אלומה, נרי, 1963-  (עורך)  $$Qאלומה, נרי, 1963-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21171184180005171,NNL_ALEPH11375584180005171</t>
+          <t>NNL_ALEPH21171184180005171</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171184180005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375584180005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171184180005171</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -5906,17 +6781,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20160101</t>
+          <t>תשע"ד 2014</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,בני ברק : ספרית פועלים - הקיבוץ המאוחד</t>
+          <t>בני ברק : ספרית פועלים - הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -5926,17 +6801,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>990048844380205171,990037494470205171</t>
+          <t>990037494470205171</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171184180005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171184180005171</t>
         </is>
       </c>
     </row>
@@ -5973,35 +6848,40 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>125, [2] עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>20080101</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[בני ברק] : הקיבוץ המאוחד</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>990026117670205171</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -6010,14 +6890,79 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>אחריי אייריס</t>
+          <t>אחרי אייריס : היומנים של בלובל גדסבי / נטשה פארנט ; מאנגלית: יעל אכמון.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21171205270005171</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171205270005171</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>פארנט, נטשה מחבר$$Qפארנט, נטשה</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- 21st century; Children's stories -- Translations into Hebrew; Grief -- Fiction; Siblings -- Juvenile fiction; Diaries -- Juvenile fiction; Twins -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303127800005171</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>223 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>תשע"ד 2014</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>אור-יהודה : כנרת, זמורה-ביתן - מוציאים לאור</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>990037495470205171</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171205270005171</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>מחזור : ... מיט הונדערט מעלות, מיט אמרי נועם, משלי יעקב, לקוטים יקרים, מיט אלע תחינות אונ דינים אונ הנהגת אדם ... האבן מיר מוסיף געוועזען פיער נייע פרושים ... א. מוסר השכל ב. משלי מוסר ג. התעוררות ד. נפלאות חדשות ... גם האבען מיר מוסיף געוועזען א סך נייע תחינות ...,אדם האבן / מצאו וסיפרו קורנליה פונקה וליונל ויגראם ; מגרמנית - חנה לבנת.</t>
+          <t>אדם האבן / מצאו וסיפרו קורנליה פונקה וליונל ויגראם ; מגרמנית - חנה לבנת.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -6027,12 +6972,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21265706750005171,NNL_ALEPH21173442380005171</t>
+          <t>NNL_ALEPH21265706750005171</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21265706750005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21173442380005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21265706750005171</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -6042,69 +6987,74 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Children's stories, German -- 21st century; Children's stories -- Translations into Hebrew; Paranormal fiction; Fantasy -- Juvenile fiction,Mahzor</t>
+          <t>Children's stories, German -- 21st century; Children's stories -- Translations into Hebrew; Paranormal fiction; Fantasy -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE171621240</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1 כרך (חלק א) ; 23 ס"מ.,300 עמודים ; 21 ס"מ.</t>
+          <t>300 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>אור יהודה : זמורה-ביתן,קראקא : יוסף לעזער - דפוס יוסף פישער</t>
+          <t>תשע"ג 2013</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>heb,yid</t>
+          <t>אור יהודה : זמורה-ביתן</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>990013725780205171,990035352840205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990035352840205171</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21173442380005171,The National Library of Israel</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>להעריץ את ג'נה פוקס / מרי א. פירסון ; מספרת תמר חנה שטיירמן.,להעריץ את ג'נה פוקס / מרי א.פירסון ; מאנגלית: מאירה פירון ; עריכה לשונית: ניצה פלד.</t>
+          <t>להעריץ את ג'נה פוקס / מרי א.פירסון ; מאנגלית: מאירה פירון ; עריכה לשונית: ניצה פלד.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>חנה שטיירמן, תמר  (דובר)  $$Qחנה שטיירמן, תמר,פירון, מאירה, 1966-  (מתרגם)  $$Qפירון, מאירה, 1966-</t>
+          <t>פירון, מאירה, 1966-  (מתרגם)  $$Qפירון, מאירה, 1966-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11349307950005171,NNL_ALEPH21233467250005171</t>
+          <t>NNL_ALEPH21233467250005171</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21233467250005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11349307950005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21233467250005171</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>פירסון, מרי א. מחבר$$Qפירסון, מרי א,א. פירסון, מרי מחבר$$Qא. פירסון, מרי</t>
+          <t>פירסון, מרי א. מחבר$$Qפירסון, מרי א</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -6114,12 +7064,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242857,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302894740005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302894740005171</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>287 עמודים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>287 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6129,7 +7079,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד וטל מאי</t>
+          <t>תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד וטל מאי</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -6139,49 +7089,24 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>990038018230205171,990039034380205171</t>
+          <t>990038018230205171</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21233467250005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21233467250005171</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>עצלים לא באו סיפורם של נפתלי וחנה וייץ רופאים וחלוצים עטר פלג.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>NNL_ARCHIVE_AL71397866360005171</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ARCHIVE_AL71397866360005171</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>997009705378705171</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>archive</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>The National Library of Israel</t>
+          <t>עצלים לא באו: סיפורם של נפתלי וחנה ווייץ: רופאים וחלוצים / פלג עטר</t>
         </is>
       </c>
     </row>
@@ -6300,25 +7225,30 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>תשע"ה 2015</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>קריית גת : דני ספרים הוצאה לאור</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>990038234400205171</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21268299220005171</t>
         </is>
@@ -6520,35 +7450,40 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>454 עמודים : פורטרטים, תרשים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>20130101</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>תל-אביב : פן ; משכל</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>990035366190205171</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21255389550005171</t>
         </is>
@@ -6557,37 +7492,52 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>לילות לטרון.</t>
+          <t>לטרון / רם אורן ; עורך - יוסף שביט ; [מפות - אלדד זקוביץ].</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>שביט, יוסף, 1934-  $$Qשביט, יוסף, 1934-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71176995390005171</t>
+          <t>NNL_ALEPH21178583480005171</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71176995390005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21178583480005171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>אהרנוביץ, צבי מלחין$$Qאהרנוביץ, צבי</t>
+          <t>אורן, רם, 1936-$$Qאורן, רם, 1936-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Israel -- History -- War of Independence, 1948-1949 -- Campaigns; Latrun (Israel) -- History</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE202478647</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1 filmstrip (1 frame) : b/w ; 35mm.</t>
+          <t>352 עמודים : איורים, מפות צבעוניות, פורטרטים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20020101</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>לטרון</t>
+          <t>תל אביב : קשת</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -6597,17 +7547,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>990025572200205171</t>
+          <t>990022166910205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -6624,12 +7574,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21228505080005171,NNL_ALEPH21227622810005171</t>
+          <t>NNL_ALEPH21227622810005171</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21228505080005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21227622810005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21227622810005171</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -6639,12 +7589,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Russian fiction -- Translations into Hebrew,Fiction -- Translations into Hebrew</t>
+          <t>Russian fiction -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302746140005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303891200005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303891200005171</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6654,27 +7604,32 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>תשנ"ה 1994</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>תל אביב : עם עובד</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>990027866470205171,990013494650205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990013494650205171</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21227622810005171,$$VThe National Library of Israel$$ONNL_ALEPH21228505080005171</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21227622810005171</t>
         </is>
       </c>
     </row>
@@ -6753,52 +7708,62 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bir at bara girmiş / David Grossman ; Turkçesi: Aylin Ülçer.</t>
+          <t>סוס אחד נכנס לבר / דויד גרוסמן ; עורך הספר: מנחם פרי.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ülçer, Aylin  (translator)  $$QÜlçer, Aylin</t>
+          <t>פרי, מנחם, 1942-  (עורך)  $$Qפרי, מנחם, 1942-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21398134700005171</t>
+          <t>NNL_ALEPH21267217450005171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21398134700005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21267217450005171</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>David Grossman 1954- author$$QGrossman, David, 1954-</t>
+          <t>גרוסמן, דויד, 1954- מחבר$$Qגרוסמן, דויד, 1954-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Comedians -- Israel -- Fiction; Nightclubs -- Israel -- Fiction; Stand-up comedy -- Israel -- Fiction; Hebrew fiction -- Translations into Turkish; Israel -- Social life and customs -- 21st century -- Fiction</t>
+          <t>Comedians -- Israel -- Fiction; Nightclubs -- Israel -- Fiction; Stand-up comedy -- Israel -- Fiction; Israel -- Social life and customs -- 21st century -- Fiction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303108910005171</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>198 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20180101</t>
+          <t>תשע"ד 2014</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>İstanbul : Siren Yayınları</t>
+          <t>[בני ברק] : הוצאת הקיבוץ המאוחד / ספרי סימן קריאה</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>tur</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>997009706977705171</t>
+          <t>990037326420205171</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -6808,29 +7773,29 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21398134700005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21267217450005171</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>סיפור אהבה ארץ-ישראלי</t>
+          <t>סיפור אהבה ארץ-ישראלי / פנינה גרי.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>מחפוד, מלכה  (דובר מבצע)  $$Qמחפוד, מלכה</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL21174899880005171</t>
+          <t>NNL_ALEPH21277612630005171</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL21174899880005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21277612630005171</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -6838,9 +7803,29 @@
           <t>גרי, פנינה, 1927-2023 מחבר$$Qגרי, פנינה, 1927-2023</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>גרי, פנינה, 1927-2023; בן צבי, עלי, 1924-1948; Biographical fiction, Hebrew; Romance fiction; Man-woman relationships -- Fiction; Eretz Israel -- History -- 1917-1948, British Mandate period -- Fiction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304914890005171</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>159 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>תשע"ה 2015</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>תל אביב וירושלים : הוצאת שוקן,נתניה : הספריה המרכזית לעיוורים, כבדי ראיה ומוגבלים</t>
+          <t>תל אביב וירושלים : הוצאת שוקן</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -6850,89 +7835,89 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>990039504130205171</t>
+          <t>990038442030205171</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>reccomm</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel - Music Library$$ONNL_MUSIC_AL21174899880005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21277612630005171</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>העולם השטוח .[דף שיר].,A journey to the center of the earth / Jules Verne.</t>
+          <t>הקורא של ז'ול ורן / אלמודנה גרנדס ; מספרדית: אינס ולר.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ירחי, ג'קי  (מאייר)  $$Qירחי, ג'קי,גולדברג, מאיר, 1957-  (מחבר)  $$Qגולדברג, מאיר, 1957-</t>
+          <t>ולר, אינס  (מתרגם)  $$Qולר, אינס</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71399218430005171,NNL_ALEPH21169177170005171</t>
+          <t>NNL_ALEPH21185814750005171</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71399218430005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21169177170005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21185814750005171</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>תורן, דן, 1960-2024 מלחין מחבר$$Qתורן, דן, 1960-2024,Jules Verne 1828-1905 author$$QVerne, Jules, 1828-1905</t>
+          <t>גרנדס, אלמודנה, 1960-2021 מחבר$$Qגרנדס, אלמודנה, 1960-2021</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>English language -- Study and teaching (Elementary) -- Hebrew speakers; Readers (Elementary)</t>
+          <t>Fiction -- Translations into Hebrew; Spain -- History -- Civil War, 1936-1939 -- Fiction; Spain -- History -- 1939-1975 -- Fiction</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304059300005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302977410005171</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>32 pages : illustrations ; 14 x 22 cm.</t>
+          <t>350 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>19960101,20060101</t>
+          <t>20140101</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[Kfar Monash] : Ofarim</t>
+          <t>מושב בן-שמן : מודן הוצאה לאור</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>eng,heb</t>
+          <t>heb;spa</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>990040588480205171,997009760330105171</t>
+          <t>990037696550205171</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>dafshir,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21169177170005171,The National Library of Israel - Music Library</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21185814750005171</t>
         </is>
       </c>
     </row>
@@ -6969,30 +7954,40 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>437 עמודים, 1 עמוד לא ממוספר ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>תשע"ה 2014</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>תל אביב : אחוזת בית, הוצאה לאור ; משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>990037861140205171</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -7073,32 +8068,52 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>השפעה ארוכת טווח של התערבות דיגיטלית להפחתת דחק בקרב קשישים בעת הגל החמישי של מגפת הקורונה : מחקר מעקב / מאת: אביטל אביגזר ; בהנחיית: ד"ר דפנה ישועה-כץ, ד"ר סתיו שפירא ופרופ' אורלי שריד.</t>
+          <t>הגל החמישי : ספר ראשון / ריק יאנסי ; מאנגלית - יעל אכמון ; [עורך התרגום - אסף שור].</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>אכמון, יעל  $$Qאכמון, יעל</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NNL_ALEPH71526665000005171</t>
+          <t>NNL_ALEPH21273452580005171</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71526665000005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21273452580005171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>יאנסי, ריק$$Qיאנסי, ריק</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Science fiction, American -- Translations into Hebrew; Dystopias -- Fiction; Human-alien encounters -- Fiction; Extraterrestrial beings -- Fiction; Survival -- Fiction</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302738270005171</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1 משאב אלקטרוני.</t>
+          <t>440 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20230101</t>
+          <t>20140101</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>באר-שבע : אוניברסיטת בן-גוריון בנגב</t>
+          <t>ירושלים : כתר ; מודן</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -7108,12 +8123,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>997012659842505171</t>
+          <t>990036742300205171</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21273452580005171</t>
         </is>
       </c>
     </row>
@@ -7160,25 +8180,30 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>תשע"ד 2014</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>תל אביב : עם עובד</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>990036752950205171</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21172552920005171</t>
         </is>
@@ -7217,35 +8242,40 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>319 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>20130101</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>תל אביב : משכל</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>990035674880205171</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -7259,50 +8289,65 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>NNL_ALEPH21167251520005171</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21167251520005171</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>מצוב-כהן, עפרה, 1962-$$Qמצוב-כהן, עפרה, 1962-</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>מצוב-כהן, עפרה, 1962-; Biographical fiction, Israeli; Jews, Iranian -- Israel -- Fiction; Israel -- Emigration and immigration -- Fiction; Israel -- History -- 1948-1967 -- Fiction</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>176 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>תשע"ב 2012</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>תל אביב : גוונים</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>990034219180205171</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -7455,37 +8500,52 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>אל מסתתר בשפריר חביון.</t>
+          <t>בשפריר חביון / חיים סבתו ; עורך: יהודה מלצר.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>מלצר, יהודה, 1940-  (עורך)  $$Qמלצר, יהודה, 1940-</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA21217570720005171</t>
+          <t>NNL_ALEPH21171094640005171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA21217570720005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171094640005171</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>מימין, אברהם</t>
+          <t>סבתו, חיים, 1952- מחבר$$Qסבתו, חיים, 1952-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Miscellaneous prayers (Jewish liturgy)</t>
+          <t>מימין, אברהם. אל מסתתר; Jewish families -- Israel -- Fiction; Jews -- Egypt -- Fiction; Jews, Egyptian -- Israel -- Fiction; Immigrants -- Israel -- Fiction; Jerusalem (Israel) -- History -- 20th century -- Fiction</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303074270005171</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[1] עמוד ; 20 ס"מ..</t>
+          <t>187 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>19650101</t>
+          <t>20140101</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>תל אביב : ספרי עליית הגג ; משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -7495,59 +8555,79 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>990012934900205171</t>
+          <t>990037489860205171</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171094640005171</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Panter v podzemí / Amos Oz ; z angličtiny preložila Katarína Karovičová.</t>
+          <t>פנתר במרתף / עמוס עוז.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21488944710005171</t>
+          <t>NNL_ALEPH21170285130005171</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21488944710005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21170285130005171</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Amos Oz 1939-2018 author$$QOz, Amos, 1939-2018</t>
+          <t>עוז, עמוס, 1939-2018$$Qעוז, עמוס, 1939-2018</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hebrew fiction -- Translations into Slovak; Jewish boys -- Eretz Israel -- Juvenile fiction; British -- Eretz Israel -- Juvenile fiction; Police -- Eretz Israel -- Juvenile fiction; Friendship -- Juvenile fiction; Eretz Israel -- History -- 1917-1948, British Mandate period -- Juvenile fiction</t>
+          <t>Jewish boys -- Eretz Israel -- Juvenile fiction; British -- Eretz Israel -- Juvenile fiction; Police -- Eretz Israel -- Juvenile fiction; Friendship -- Juvenile fiction; Eretz Israel -- History -- 1917-1948, British Mandate period -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>173 pages ; 20 cm.</t>
+          <t>155 עמודים : איורים ; 20 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>19950101</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Bratislava : Slovart</t>
+          <t>ירושלים : כתר</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>slo</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>997011650772005171</t>
+          <t>990013504310205171</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -7564,27 +8644,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>נבואת השבעה / רנסום ריגס ; מאנגלית: יעל אכמון ; עורכת התרגום: יעל ינאי.</t>
+          <t>המעון של מיס פרגרין לילדים משונים / רנסום ריגס ; מאנגלית - טל ארצי ; [עורכת אחראית - רחלה זנדבנק].</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>אכמון, יעל  (מתרגם)  $$Qאכמון, יעל</t>
+          <t>זנדבנק, רחלה  $$Qזנדבנק, רחלה</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21419823980005171</t>
+          <t>NNL_ALEPH21173925230005171</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21419823980005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21173925230005171</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ריגס, רנסום מחבר$$Qריגס, רנסום,ריגס, רנסום$$Qריגס, רנסום</t>
+          <t>ריגס, רנסום$$Qריגס, רנסום</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -7592,19 +8672,24 @@
           <t>American fiction -- Translations into Hebrew; Orphanages -- Fiction; Islands -- Fiction; Teenage boys -- Fiction; Young adult fiction; Fantasy fiction; Wales -- Fiction</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>544 עמודים : איורים צבעוניים ; 21 ס"מ.</t>
+          <t>356, [2] עמודים : איורים, פורטרטים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>20140101,20120101</t>
+          <t>20120101</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>מושב בן שמן : כתר</t>
+          <t>ירושלים : כתר</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -7614,7 +8699,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>997010090012405171</t>
+          <t>990034684440205171</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -7624,29 +8709,29 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21419823980005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>במערב אין כל חדש.</t>
+          <t>במערב אין כל חדש / אריך מריה רמרק ; תירגם מגרמנית והוסיף אחרית דבר: גדי גולדברג.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>גולדברג, גדי, 1972-  (מתרגם מחבר אחרית דבר)  $$Qגולדברג, גדי, 1972-</t>
+          <t>גולדברג, גדי, 1972-  (מתרגם)  $$Qגולדברג, גדי, 1972-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11429245590005171</t>
+          <t>NNL_ALEPH21191195050005171</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429245590005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21191195050005171</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -7656,22 +8741,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>German fiction -- Translations into Hebrew; World War, 1914-1918 -- Fiction</t>
+          <t>Fiction -- Translations into Hebrew; World War, 1914-1918 -- Fiction</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302934660005171</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>204 עמודים ; 21 ס"מ</t>
+          <t>204 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>19320101</t>
+          <t>תשע"ד 2014</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>חבל מודיעין : הוצאת מחברות לספרות</t>
+          <t>אור יהודה : הוצאת מחברות לספרות</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -7681,7 +8771,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>997001751050405171</t>
+          <t>990037138210205171</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21191195050005171</t>
         </is>
       </c>
     </row>
@@ -7728,25 +8828,30 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>תשע"ה 2015</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>חיפה : פרדס הוצאה לאור</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>990038068740205171</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21171977540005171</t>
         </is>
@@ -7755,37 +8860,52 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>השתתפו במבחני אות השוחה - דרישות המבחן.</t>
+          <t>תכנית "מעטפת" לבני נוער המטופלים בשירות המבחן לנוער : מחקר הערכה / פאולה כאהן-סטרבצ'ינסקי, נועה שר, דגנית לוי ; הפקה והבאה לדפוס: לסלי קליינמן.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bibliotheca Rosenthaliana Netherlands; (current owner) $$QBibliotheca Rosenthaliana Netherlands</t>
+          <t>שר, נועה  (מחבר)  $$Qשר, נועה</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11429019700005171</t>
+          <t>NNL_ALEPH21176962590005171</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429019700005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21176962590005171</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>דלוילה, אברהם בן דניאל, 1807-1877 עורך$$Qדלוילה, אברהם בן דניאל, 1807-1877</t>
+          <t>כאהן-סטרבצ'ינסקי, פאולה מחבר$$Qכאהן-סטרבצ'ינסקי, פאולה</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Congresses and conventions -- Israel; Israel -- Politics and government</t>
+          <t>At-risk youth -- Rehabilitation -- Israel; Juvenile probation -- Israel; Social work with youth -- Israel -- Statistics</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302982810005171</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>כולל איור..</t>
+          <t>[2], XIII, 71 עמודים ; 28 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>תשע"ד 2014</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ירושלים : מאיירס-ג'וינט-מכון ברוקדייל - מרכז אנגלברג לילדים ולנוער</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -7795,17 +8915,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>997001709570405171</t>
+          <t>990037056580205171</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21176962590005171</t>
         </is>
       </c>
     </row>
@@ -7903,37 +9023,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>לילות לטרון.</t>
+          <t>לטרון / רם אורן ; עורך - יוסף שביט ; [מפות - אלדד זקוביץ].</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>שביט, יוסף, 1934-  $$Qשביט, יוסף, 1934-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71176995390005171</t>
+          <t>NNL_ALEPH21178583480005171</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71176995390005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21178583480005171</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>אהרנוביץ, צבי מלחין$$Qאהרנוביץ, צבי</t>
+          <t>אורן, רם, 1936-$$Qאורן, רם, 1936-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Israel -- History -- War of Independence, 1948-1949 -- Campaigns; Latrun (Israel) -- History</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE202478647</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1 filmstrip (1 frame) : b/w ; 35mm.</t>
+          <t>352 עמודים : איורים, מפות צבעוניות, פורטרטים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>20020101</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>לטרון</t>
+          <t>תל אביב : קשת</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -7943,17 +9078,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>990025572200205171</t>
+          <t>990022166910205171</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -7970,12 +9105,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21228505080005171,NNL_ALEPH21227622810005171</t>
+          <t>NNL_ALEPH21227622810005171</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21228505080005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21227622810005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21227622810005171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -7985,12 +9120,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Russian fiction -- Translations into Hebrew,Fiction -- Translations into Hebrew</t>
+          <t>Russian fiction -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302746140005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303891200005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303891200005171</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8000,27 +9135,32 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>תשנ"ה 1994</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>תל אביב : עם עובד</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>990027866470205171,990013494650205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990013494650205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21227622810005171,$$VThe National Library of Israel$$ONNL_ALEPH21228505080005171</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21227622810005171</t>
         </is>
       </c>
     </row>
@@ -8099,22 +9239,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>סיפור אהבה ארץ-ישראלי</t>
+          <t>סיפור אהבה ארץ-ישראלי / פנינה גרי.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>מחפוד, מלכה  (דובר מבצע)  $$Qמחפוד, מלכה</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL21174899880005171</t>
+          <t>NNL_ALEPH21277612630005171</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL21174899880005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21277612630005171</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -8122,9 +9262,29 @@
           <t>גרי, פנינה, 1927-2023 מחבר$$Qגרי, פנינה, 1927-2023</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>גרי, פנינה, 1927-2023; בן צבי, עלי, 1924-1948; Biographical fiction, Hebrew; Romance fiction; Man-woman relationships -- Fiction; Eretz Israel -- History -- 1917-1948, British Mandate period -- Fiction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304914890005171</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>159 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>תשע"ה 2015</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>תל אביב וירושלים : הוצאת שוקן,נתניה : הספריה המרכזית לעיוורים, כבדי ראיה ומוגבלים</t>
+          <t>תל אביב וירושלים : הוצאת שוקן</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -8134,89 +9294,89 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>990039504130205171</t>
+          <t>990038442030205171</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>reccomm</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel - Music Library$$ONNL_MUSIC_AL21174899880005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21277612630005171</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>העולם השטוח .[דף שיר].,A journey to the center of the earth / Jules Verne.</t>
+          <t>הקורא של ז'ול ורן / אלמודנה גרנדס ; מספרדית: אינס ולר.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ירחי, ג'קי  (מאייר)  $$Qירחי, ג'קי,גולדברג, מאיר, 1957-  (מחבר)  $$Qגולדברג, מאיר, 1957-</t>
+          <t>ולר, אינס  (מתרגם)  $$Qולר, אינס</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71399218430005171,NNL_ALEPH21169177170005171</t>
+          <t>NNL_ALEPH21185814750005171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71399218430005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21169177170005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21185814750005171</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>תורן, דן, 1960-2024 מלחין מחבר$$Qתורן, דן, 1960-2024,Jules Verne 1828-1905 author$$QVerne, Jules, 1828-1905</t>
+          <t>גרנדס, אלמודנה, 1960-2021 מחבר$$Qגרנדס, אלמודנה, 1960-2021</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>English language -- Study and teaching (Elementary) -- Hebrew speakers; Readers (Elementary)</t>
+          <t>Fiction -- Translations into Hebrew; Spain -- History -- Civil War, 1936-1939 -- Fiction; Spain -- History -- 1939-1975 -- Fiction</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304059300005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302977410005171</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>32 pages : illustrations ; 14 x 22 cm.</t>
+          <t>350 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19960101,20060101</t>
+          <t>20140101</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[Kfar Monash] : Ofarim</t>
+          <t>מושב בן-שמן : מודן הוצאה לאור</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>eng,heb</t>
+          <t>heb;spa</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>990040588480205171,997009760330105171</t>
+          <t>990037696550205171</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>dafshir,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21169177170005171,The National Library of Israel - Music Library</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21185814750005171</t>
         </is>
       </c>
     </row>
@@ -8253,30 +9413,40 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>437 עמודים, 1 עמוד לא ממוספר ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>תשע"ה 2014</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>תל אביב : אחוזת בית, הוצאה לאור ; משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>990037861140205171</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -8429,32 +9599,52 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>השפעה ארוכת טווח של התערבות דיגיטלית להפחתת דחק בקרב קשישים בעת הגל החמישי של מגפת הקורונה : מחקר מעקב / מאת: אביטל אביגזר ; בהנחיית: ד"ר דפנה ישועה-כץ, ד"ר סתיו שפירא ופרופ' אורלי שריד.</t>
+          <t>הגל החמישי : ספר ראשון / ריק יאנסי ; מאנגלית - יעל אכמון ; [עורך התרגום - אסף שור].</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>אכמון, יעל  $$Qאכמון, יעל</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NNL_ALEPH71526665000005171</t>
+          <t>NNL_ALEPH21273452580005171</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71526665000005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21273452580005171</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>יאנסי, ריק$$Qיאנסי, ריק</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Science fiction, American -- Translations into Hebrew; Dystopias -- Fiction; Human-alien encounters -- Fiction; Extraterrestrial beings -- Fiction; Survival -- Fiction</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302738270005171</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1 משאב אלקטרוני.</t>
+          <t>440 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20230101</t>
+          <t>20140101</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>באר-שבע : אוניברסיטת בן-גוריון בנגב</t>
+          <t>ירושלים : כתר ; מודן</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -8464,12 +9654,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>997012659842505171</t>
+          <t>990036742300205171</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>book</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21273452580005171</t>
         </is>
       </c>
     </row>
@@ -8516,25 +9711,30 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>תשע"ד 2014</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>תל אביב : עם עובד</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>990036752950205171</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21172552920005171</t>
         </is>
@@ -8573,35 +9773,40 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>319 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>20130101</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>תל אביב : משכל</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>990035674880205171</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -8615,50 +9820,65 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>NNL_ALEPH21167251520005171</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21167251520005171</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>מצוב-כהן, עפרה, 1962-$$Qמצוב-כהן, עפרה, 1962-</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>מצוב-כהן, עפרה, 1962-; Biographical fiction, Israeli; Jews, Iranian -- Israel -- Fiction; Israel -- Emigration and immigration -- Fiction; Israel -- History -- 1948-1967 -- Fiction</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>176 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>תשע"ב 2012</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>תל אביב : גוונים</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>990034219180205171</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -8739,37 +9959,52 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>אל מסתתר בשפריר חביון.</t>
+          <t>בשפריר חביון / חיים סבתו ; עורך: יהודה מלצר.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>מלצר, יהודה, 1940-  (עורך)  $$Qמלצר, יהודה, 1940-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA21217570720005171</t>
+          <t>NNL_ALEPH21171094640005171</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA21217570720005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171094640005171</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>מימין, אברהם</t>
+          <t>סבתו, חיים, 1952- מחבר$$Qסבתו, חיים, 1952-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Miscellaneous prayers (Jewish liturgy)</t>
+          <t>מימין, אברהם. אל מסתתר; Jewish families -- Israel -- Fiction; Jews -- Egypt -- Fiction; Jews, Egyptian -- Israel -- Fiction; Immigrants -- Israel -- Fiction; Jerusalem (Israel) -- History -- 20th century -- Fiction</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303074270005171</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[1] עמוד ; 20 ס"מ..</t>
+          <t>187 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>19650101</t>
+          <t>20140101</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>תל אביב : ספרי עליית הגג ; משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -8779,12 +10014,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>990012934900205171</t>
+          <t>990037489860205171</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171094640005171</t>
         </is>
       </c>
     </row>
@@ -8796,60 +10036,65 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>NNL_ALEPH21274303180005171</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21274303180005171</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>סדן, בת שבע$$Qסדן, בת שבע</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>הורביץ, אלי, 1951-2003; הורביץ, דינה, 1953-2003; Rabbis -- Israel -- Biography; Jewish educators -- Biography; Victims of terrorism -- Israel -- Biography; Orphans -- Israel -- Biography; Bereavement -- Israel</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302918250005171</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>294 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>20140101</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>תל-אביב : משכל - הוצאה לאור</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>990037848410205171</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21274303180005171</t>
         </is>
@@ -8858,47 +10103,62 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Panter v podzemí / Amos Oz ; z angličtiny preložila Katarína Karovičová.</t>
+          <t>פנתר במרתף / עמוס עוז.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21488944710005171</t>
+          <t>NNL_ALEPH21170285130005171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21488944710005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21170285130005171</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Amos Oz 1939-2018 author$$QOz, Amos, 1939-2018</t>
+          <t>עוז, עמוס, 1939-2018$$Qעוז, עמוס, 1939-2018</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hebrew fiction -- Translations into Slovak; Jewish boys -- Eretz Israel -- Juvenile fiction; British -- Eretz Israel -- Juvenile fiction; Police -- Eretz Israel -- Juvenile fiction; Friendship -- Juvenile fiction; Eretz Israel -- History -- 1917-1948, British Mandate period -- Juvenile fiction</t>
+          <t>Jewish boys -- Eretz Israel -- Juvenile fiction; British -- Eretz Israel -- Juvenile fiction; Police -- Eretz Israel -- Juvenile fiction; Friendship -- Juvenile fiction; Eretz Israel -- History -- 1917-1948, British Mandate period -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>173 pages ; 20 cm.</t>
+          <t>155 עמודים : איורים ; 20 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>19950101</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Bratislava : Slovart</t>
+          <t>ירושלים : כתר</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>slo</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>997011650772005171</t>
+          <t>990013504310205171</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -8915,27 +10175,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>נבואת השבעה / רנסום ריגס ; מאנגלית: יעל אכמון ; עורכת התרגום: יעל ינאי.</t>
+          <t>המעון של מיס פרגרין לילדים משונים / רנסום ריגס ; מאנגלית - טל ארצי ; [עורכת אחראית - רחלה זנדבנק].</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>אכמון, יעל  (מתרגם)  $$Qאכמון, יעל</t>
+          <t>זנדבנק, רחלה  $$Qזנדבנק, רחלה</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21419823980005171</t>
+          <t>NNL_ALEPH21173925230005171</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21419823980005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21173925230005171</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ריגס, רנסום מחבר$$Qריגס, רנסום,ריגס, רנסום$$Qריגס, רנסום</t>
+          <t>ריגס, רנסום$$Qריגס, רנסום</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -8943,19 +10203,24 @@
           <t>American fiction -- Translations into Hebrew; Orphanages -- Fiction; Islands -- Fiction; Teenage boys -- Fiction; Young adult fiction; Fantasy fiction; Wales -- Fiction</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>544 עמודים : איורים צבעוניים ; 21 ס"מ.</t>
+          <t>356, [2] עמודים : איורים, פורטרטים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>20140101,20120101</t>
+          <t>20120101</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>מושב בן שמן : כתר</t>
+          <t>ירושלים : כתר</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -8965,7 +10230,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>997010090012405171</t>
+          <t>990034684440205171</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -8975,29 +10240,29 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21419823980005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>במערב אין כל חדש.</t>
+          <t>במערב אין כל חדש / אריך מריה רמרק ; תירגם מגרמנית והוסיף אחרית דבר: גדי גולדברג.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>גולדברג, גדי, 1972-  (מתרגם מחבר אחרית דבר)  $$Qגולדברג, גדי, 1972-</t>
+          <t>גולדברג, גדי, 1972-  (מתרגם)  $$Qגולדברג, גדי, 1972-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11429245590005171</t>
+          <t>NNL_ALEPH21191195050005171</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429245590005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21191195050005171</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -9007,22 +10272,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>German fiction -- Translations into Hebrew; World War, 1914-1918 -- Fiction</t>
+          <t>Fiction -- Translations into Hebrew; World War, 1914-1918 -- Fiction</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302934660005171</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>204 עמודים ; 21 ס"מ</t>
+          <t>204 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>19320101</t>
+          <t>תשע"ד 2014</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>חבל מודיעין : הוצאת מחברות לספרות</t>
+          <t>אור יהודה : הוצאת מחברות לספרות</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -9032,7 +10302,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>997001751050405171</t>
+          <t>990037138210205171</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21191195050005171</t>
         </is>
       </c>
     </row>
@@ -9079,25 +10359,30 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>תשע"ה 2015</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>חיפה : פרדס הוצאה לאור</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>990038068740205171</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21171977540005171</t>
         </is>
@@ -9106,37 +10391,52 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>השתתפו במבחני אות השוחה - דרישות המבחן.</t>
+          <t>תכנית "מעטפת" לבני נוער המטופלים בשירות המבחן לנוער : מחקר הערכה / פאולה כאהן-סטרבצ'ינסקי, נועה שר, דגנית לוי ; הפקה והבאה לדפוס: לסלי קליינמן.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bibliotheca Rosenthaliana Netherlands; (current owner) $$QBibliotheca Rosenthaliana Netherlands</t>
+          <t>שר, נועה  (מחבר)  $$Qשר, נועה</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11429019700005171</t>
+          <t>NNL_ALEPH21176962590005171</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429019700005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21176962590005171</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>דלוילה, אברהם בן דניאל, 1807-1877 עורך$$Qדלוילה, אברהם בן דניאל, 1807-1877</t>
+          <t>כאהן-סטרבצ'ינסקי, פאולה מחבר$$Qכאהן-סטרבצ'ינסקי, פאולה</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Congresses and conventions -- Israel; Israel -- Politics and government</t>
+          <t>At-risk youth -- Rehabilitation -- Israel; Juvenile probation -- Israel; Social work with youth -- Israel -- Statistics</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302982810005171</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>כולל איור..</t>
+          <t>[2], XIII, 71 עמודים ; 28 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>תשע"ד 2014</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ירושלים : מאיירס-ג'וינט-מכון ברוקדייל - מרכז אנגלברג לילדים ולנוער</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -9146,17 +10446,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>997001709570405171</t>
+          <t>990037056580205171</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21176962590005171</t>
         </is>
       </c>
     </row>
